--- a/Top 75 LeetCode Teamblind Questions/Leetcode 75 Questions (NeetCode on yt).xlsx
+++ b/Top 75 LeetCode Teamblind Questions/Leetcode 75 Questions (NeetCode on yt).xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="318">
-  <si>
-    <t>A BETTER VERSION -&gt;&gt;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+  <si>
+    <t xml:space="preserve">A BETTER VERSION -&gt;&gt;</t>
   </si>
   <si>
     <t>https://neetcode.io/</t>
   </si>
   <si>
-    <t>Video Solution</t>
+    <t xml:space="preserve">Video Solution</t>
   </si>
   <si>
     <t>Category</t>
@@ -40,97 +42,97 @@
     <t>Arrays</t>
   </si>
   <si>
-    <t>Two Sum</t>
+    <t xml:space="preserve">Two Sum</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/two-sum/</t>
   </si>
   <si>
-    <t>use hash map to instantly check for difference value, map will add index of last occurrence of a num, don’t use same element twice;</t>
+    <t xml:space="preserve">use hash map to instantly check for difference value, map will add index of last occurrence of a num, don’t use same element twice;</t>
   </si>
   <si>
     <t>https://youtu.be/1pkOgXD63yU</t>
   </si>
   <si>
-    <t>Best Time to Buy and Sell Stock</t>
+    <t xml:space="preserve">Best Time to Buy and Sell Stock</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
   </si>
   <si>
-    <t>find local min and search for local max, sliding window;</t>
+    <t xml:space="preserve">find local min and search for local max, sliding window;</t>
   </si>
   <si>
     <t>https://youtu.be/3OamzN90kPg</t>
   </si>
   <si>
-    <t>Contains Duplicate</t>
+    <t xml:space="preserve">Contains Duplicate</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/contains-duplicate/</t>
   </si>
   <si>
-    <t>hashset to get unique values in array, to check for duplicates easily</t>
+    <t xml:space="preserve">hashset to get unique values in array, to check for duplicates easily</t>
   </si>
   <si>
     <t>https://youtu.be/bNvIQI2wAjk</t>
   </si>
   <si>
-    <t>Product of Array Except Self</t>
+    <t xml:space="preserve">Product of Array Except Self</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/product-of-array-except-self/</t>
   </si>
   <si>
-    <t>make two passes, first in-order, second in-reverse, to compute products</t>
+    <t xml:space="preserve">make two passes, first in-order, second in-reverse, to compute products</t>
   </si>
   <si>
     <t>https://youtu.be/5WZl3MMT0Eg</t>
   </si>
   <si>
-    <t>Maximum Subarray</t>
+    <t xml:space="preserve">Maximum Subarray</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray/</t>
   </si>
   <si>
-    <t>pattern: prev subarray cant be negative, dynamic programming: compute max sum for each prefix</t>
+    <t xml:space="preserve">pattern: prev subarray cant be negative, dynamic programming: compute max sum for each prefix</t>
   </si>
   <si>
     <t>https://youtu.be/lXVy6YWFcRM</t>
   </si>
   <si>
-    <t>Maximum Product Subarray</t>
+    <t xml:space="preserve">Maximum Product Subarray</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-product-subarray/</t>
   </si>
   <si>
-    <t>dp: compute max and max-abs-val for each prefix subarr;</t>
+    <t xml:space="preserve">dp: compute max and max-abs-val for each prefix subarr;</t>
   </si>
   <si>
     <t>https://youtu.be/nIVW4P8b1VA</t>
   </si>
   <si>
-    <t>Find Minimum in Rotated Sorted Array</t>
+    <t xml:space="preserve">Find Minimum in Rotated Sorted Array</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
   </si>
   <si>
-    <t>check if half of array is sorted in order to find pivot, arr is guaranteed to be in at most two sorted subarrays</t>
+    <t xml:space="preserve">check if half of array is sorted in order to find pivot, arr is guaranteed to be in at most two sorted subarrays</t>
   </si>
   <si>
     <t>https://youtu.be/U8XENwh8Oy8</t>
   </si>
   <si>
-    <t>Search in Rotated Sorted Array</t>
+    <t xml:space="preserve">Search in Rotated Sorted Array</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
   </si>
   <si>
-    <t>at most two sorted halfs, mid will be apart of left sorted or right sorted, if target is in range of sorted portion then search it, otherwise search other half</t>
+    <t xml:space="preserve">at most two sorted halfs, mid will be apart of left sorted or right sorted, if target is in range of sorted portion then search it, otherwise search other half</t>
   </si>
   <si>
     <t>https://youtu.be/jzZsG8n2R9A</t>
@@ -142,19 +144,19 @@
     <t>https://leetcode.com/problems/3sum/</t>
   </si>
   <si>
-    <t>sort input, for each first element, find next two where -a = b+c, if a=prevA, skip a, if b=prevB skip b to elim duplicates; to find b,c use two pointers, left/right on remaining list;</t>
+    <t xml:space="preserve">sort input, for each first element, find next two where -a = b+c, if a=prevA, skip a, if b=prevB skip b to elim duplicates; to find b,c use two pointers, left/right on remaining list;</t>
   </si>
   <si>
     <t>https://youtu.be/UuiTKBwPgAo</t>
   </si>
   <si>
-    <t>Container With Most Water</t>
+    <t xml:space="preserve">Container With Most Water</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/container-with-most-water/</t>
   </si>
   <si>
-    <t>shrinking window, left/right initially at endpoints, shift the pointer with min height;</t>
+    <t xml:space="preserve">shrinking window, left/right initially at endpoints, shift the pointer with min height;</t>
   </si>
   <si>
     <t>https://youtu.be/gVUrDV4tZfY</t>
@@ -163,196 +165,196 @@
     <t>Binary</t>
   </si>
   <si>
-    <t>Sum of Two Integers</t>
+    <t xml:space="preserve">Sum of Two Integers</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/sum-of-two-integers/</t>
   </si>
   <si>
-    <t>add bit by bit, be mindful of carry, after adding, if carry is still 1, then add it as well;</t>
+    <t xml:space="preserve">add bit by bit, be mindful of carry, after adding, if carry is still 1, then add it as well;</t>
   </si>
   <si>
     <t>https://youtu.be/5Km3utixwZs</t>
   </si>
   <si>
-    <t>Number of 1 Bits</t>
+    <t xml:space="preserve">Number of 1 Bits</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-1-bits/</t>
   </si>
   <si>
-    <t>modulo, and dividing n; mod and div are expensive, to divide use bit shift, instead of mod to get 1's place use bitwise &amp; 1;</t>
+    <t xml:space="preserve">modulo, and dividing n; mod and div are expensive, to divide use bit shift, instead of mod to get 1's place use bitwise &amp; 1;</t>
   </si>
   <si>
     <t>https://youtu.be/RyBM56RIWrM</t>
   </si>
   <si>
-    <t>Counting Bits</t>
+    <t xml:space="preserve">Counting Bits</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/counting-bits/</t>
   </si>
   <si>
-    <t>write out result for num=16 to figure out pattern; res[i] = res[i - offset], where offset is the biggest power of 2 &lt;= I;</t>
+    <t xml:space="preserve">write out result for num=16 to figure out pattern; res[i] = res[i - offset], where offset is the biggest power of 2 &lt;= I;</t>
   </si>
   <si>
     <t>https://youtu.be/WnPLSRLSANE</t>
   </si>
   <si>
-    <t>Missing Number</t>
+    <t xml:space="preserve">Missing Number</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/missing-number/</t>
   </si>
   <si>
-    <t>compute expected sum - real sum; xor n with each index and value;</t>
+    <t xml:space="preserve">compute expected sum - real sum; xor n with each index and value;</t>
   </si>
   <si>
     <t>https://youtu.be/UcoN6UjAI64</t>
   </si>
   <si>
-    <t>Reverse Bits</t>
+    <t xml:space="preserve">Reverse Bits</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-bits/</t>
   </si>
   <si>
-    <t>reverse each of 32 bits;</t>
+    <t xml:space="preserve">reverse each of 32 bits;</t>
   </si>
   <si>
     <t>https://youtu.be/Y0lT9Fck7qI</t>
   </si>
   <si>
-    <t>Dynamic Programming</t>
-  </si>
-  <si>
-    <t>Climbing Stairs</t>
+    <t xml:space="preserve">Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climbing Stairs</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/climbing-stairs/</t>
   </si>
   <si>
-    <t>subproblem find (n-1) and (n-2), sum = n;</t>
+    <t xml:space="preserve">subproblem find (n-1) and (n-2), sum = n;</t>
   </si>
   <si>
     <t>https://youtu.be/H9bfqozjoqs</t>
   </si>
   <si>
-    <t>Coin Change</t>
+    <t xml:space="preserve">Coin Change</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/coin-change/</t>
   </si>
   <si>
-    <t>top-down: recursive dfs, for amount, branch for each coin, cache to store prev coin_count for each amount; bottom-up: compute coins for amount = 1, up until n, using for each coin (amount - coin), cache prev values</t>
+    <t xml:space="preserve">top-down: recursive dfs, for amount, branch for each coin, cache to store prev coin_count for each amount; bottom-up: compute coins for amount = 1, up until n, using for each coin (amount - coin), cache prev values</t>
   </si>
   <si>
     <t>https://youtu.be/cjWnW0hdF1Y</t>
   </si>
   <si>
-    <t>Longest Increasing Subsequence</t>
+    <t xml:space="preserve">Longest Increasing Subsequence</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-increasing-subsequence/</t>
   </si>
   <si>
-    <t>recursive: foreach num, get subseq with num and without num, only include num if prev was less, cache solution of each; dp=subseq length which must end with each num, curr num must be after a prev dp or by itself;</t>
+    <t xml:space="preserve">recursive: foreach num, get subseq with num and without num, only include num if prev was less, cache solution of each; dp=subseq length which must end with each num, curr num must be after a prev dp or by itself;</t>
   </si>
   <si>
     <t>https://youtu.be/Ua0GhsJSlWM</t>
   </si>
   <si>
-    <t>Longest Common Subsequence</t>
+    <t xml:space="preserve">Longest Common Subsequence</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
   <si>
-    <t>recursive: if first chars are equal find lcs of remaining of each, else max of: lcs of first and remain of 2nd and lcs of 2nd remain of first, cache result; nested forloop to compute the cache without recursion;</t>
+    <t xml:space="preserve">recursive: if first chars are equal find lcs of remaining of each, else max of: lcs of first and remain of 2nd and lcs of 2nd remain of first, cache result; nested forloop to compute the cache without recursion;</t>
   </si>
   <si>
     <t>https://youtu.be/Sx9NNgInc3A</t>
   </si>
   <si>
-    <t>Word Break Problem</t>
+    <t xml:space="preserve">Word Break Problem</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-break/</t>
   </si>
   <si>
-    <t>for each prefix, if prefix is in dict and wordbreak(remaining str)=True, then return True, cache result of wordbreak;</t>
+    <t xml:space="preserve">for each prefix, if prefix is in dict and wordbreak(remaining str)=True, then return True, cache result of wordbreak;</t>
   </si>
   <si>
     <t>https://youtu.be/GBKI9VSKdGg</t>
   </si>
   <si>
-    <t>Combination Sum</t>
+    <t xml:space="preserve">Combination Sum</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/combination-sum/</t>
   </si>
   <si>
-    <t>visualize the decision tree, base case is curSum = or &gt; target, each candidate can have children of itself or elements to right of it inorder to elim duplicate solutions;</t>
+    <t xml:space="preserve">visualize the decision tree, base case is curSum = or &gt; target, each candidate can have children of itself or elements to right of it inorder to elim duplicate solutions;</t>
   </si>
   <si>
     <t>https://youtu.be/73r3KWiEvyk</t>
   </si>
   <si>
-    <t>House Robber</t>
+    <t xml:space="preserve">House Robber</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber/</t>
   </si>
   <si>
-    <t>for each num, get max of prev subarr, or num + prev subarr not including last element, store results of prev, and prev not including last element</t>
+    <t xml:space="preserve">for each num, get max of prev subarr, or num + prev subarr not including last element, store results of prev, and prev not including last element</t>
   </si>
   <si>
     <t>https://youtu.be/rWAJCfYYOvM</t>
   </si>
   <si>
-    <t>House Robber II</t>
+    <t xml:space="preserve">House Robber II</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/house-robber-ii/</t>
   </si>
   <si>
-    <t>subarr = arr without first &amp; last, get max of subarr, then pick which of first/last should be added to it</t>
+    <t xml:space="preserve">subarr = arr without first &amp; last, get max of subarr, then pick which of first/last should be added to it</t>
   </si>
   <si>
     <t>https://youtu.be/6aEyTjOwlJU</t>
   </si>
   <si>
-    <t>Decode Ways</t>
+    <t xml:space="preserve">Decode Ways</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/decode-ways/</t>
   </si>
   <si>
-    <t>can cur char be decoded in one or two ways? Recursion -&gt; cache -&gt; iterative dp solution, a lot of edge cases to determine, 52, 31, 29, 10, 20 only decoded one way, 11, 26 decoded two ways</t>
+    <t xml:space="preserve">can cur char be decoded in one or two ways? Recursion -&gt; cache -&gt; iterative dp solution, a lot of edge cases to determine, 52, 31, 29, 10, 20 only decoded one way, 11, 26 decoded two ways</t>
   </si>
   <si>
     <t>https://youtu.be/IlEsdxuD4lY</t>
   </si>
   <si>
-    <t>Unique Paths</t>
+    <t xml:space="preserve">Unique Paths</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/unique-paths/</t>
   </si>
   <si>
-    <t>work backwards from solution, store paths for each position in grid, to further optimize, we don’t store whole grid, only need to store prev row;</t>
+    <t xml:space="preserve">work backwards from solution, store paths for each position in grid, to further optimize, we don’t store whole grid, only need to store prev row;</t>
   </si>
   <si>
     <t>https://youtu.be/Yan0cv2cLy8</t>
   </si>
   <si>
-    <t>Jump Game</t>
+    <t xml:space="preserve">Jump Game</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/jump-game/</t>
   </si>
   <si>
-    <t>visualize the recursive tree, cache solution for O(n) time/mem complexity, iterative is O(1) mem, just iterate backwards to see if element can reach goal node, if yes, then set it equal to goal node, continue;</t>
+    <t xml:space="preserve">visualize the recursive tree, cache solution for O(n) time/mem complexity, iterative is O(1) mem, just iterate backwards to see if element can reach goal node, if yes, then set it equal to goal node, continue;</t>
   </si>
   <si>
     <t>https://youtu.be/mQeF6bN8hMk</t>
@@ -361,97 +363,97 @@
     <t>Graph</t>
   </si>
   <si>
-    <t>Clone Graph</t>
+    <t xml:space="preserve">Clone Graph</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/clone-graph/</t>
   </si>
   <si>
-    <t>recursive dfs, hashmap for visited nodes</t>
+    <t xml:space="preserve">recursive dfs, hashmap for visited nodes</t>
   </si>
   <si>
     <t>https://youtu.be/EgI5nU9etnU</t>
   </si>
   <si>
-    <t>Course Schedule</t>
+    <t xml:space="preserve">Course Schedule</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/course-schedule/</t>
   </si>
   <si>
-    <t>build adjacentcy_list with edges, run dfs on each V, if while dfs on V we see V again, then loop exists, otherwise V isnt in a loop, 3 states= not visited, visited, still visiting</t>
+    <t xml:space="preserve">build adjacentcy_list with edges, run dfs on each V, if while dfs on V we see V again, then loop exists, otherwise V isnt in a loop, 3 states= not visited, visited, still visiting</t>
   </si>
   <si>
     <t>https://youtu.be/s-VkcjHqkGI</t>
   </si>
   <si>
-    <t>Pacific Atlantic Water Flow</t>
+    <t xml:space="preserve">Pacific Atlantic Water Flow</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/pacific-atlantic-water-flow/</t>
   </si>
   <si>
-    <t>dfs each cell, keep track of visited, and track which reach pac, atl; dfs on cells adjacent to pac, atl, find overlap of cells that are visited by both pac and atl cells;</t>
+    <t xml:space="preserve">dfs each cell, keep track of visited, and track which reach pac, atl; dfs on cells adjacent to pac, atl, find overlap of cells that are visited by both pac and atl cells;</t>
   </si>
   <si>
     <t>https://youtu.be/pV2kpPD66nE</t>
   </si>
   <si>
-    <t>Number of Islands</t>
+    <t xml:space="preserve">Number of Islands</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-islands/</t>
   </si>
   <si>
-    <t>foreach cell, if cell is 1 and unvisited run dfs, increment cound and marking each contigous 1 as visited</t>
+    <t xml:space="preserve">foreach cell, if cell is 1 and unvisited run dfs, increment cound and marking each contigous 1 as visited</t>
   </si>
   <si>
     <t>https://youtu.be/P6RZZMu_maU</t>
   </si>
   <si>
-    <t>Longest Consecutive Sequence</t>
+    <t xml:space="preserve">Longest Consecutive Sequence</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
   </si>
   <si>
-    <t>use bruteforce and try to optimize, consider the max subseq containing each num; add each num to hashset, for each num if num-1 doesn’t exist, count the consecutive nums after num, ie num+1; there is also a union-find solution;</t>
+    <t xml:space="preserve">use bruteforce and try to optimize, consider the max subseq containing each num; add each num to hashset, for each num if num-1 doesn’t exist, count the consecutive nums after num, ie num+1; there is also a union-find solution;</t>
   </si>
   <si>
     <t>https://youtu.be/6kTZYvNNyps</t>
   </si>
   <si>
-    <t>Alien Dictionary (Leetcode Premium)</t>
+    <t xml:space="preserve">Alien Dictionary (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/alien-dictionary/</t>
   </si>
   <si>
-    <t>chars of a word not in order, the words are in order, find adjacency list of each unique char by iterating through adjacent words and finding first chars that are different, run topsort on graph and do loop detection;</t>
+    <t xml:space="preserve">chars of a word not in order, the words are in order, find adjacency list of each unique char by iterating through adjacent words and finding first chars that are different, run topsort on graph and do loop detection;</t>
   </si>
   <si>
     <t>https://youtu.be/bXsUuownnoQ</t>
   </si>
   <si>
-    <t>Graph Valid Tree (Leetcode Premium)</t>
+    <t xml:space="preserve">Graph Valid Tree (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/graph-valid-tree/</t>
   </si>
   <si>
-    <t>union find, if union return false, loop exists, at end size must equal n, or its not connected; dfs to get size and check for loop, since each edge is double, before dfs on neighbor of N, remove N from neighbor list of neighbor;</t>
+    <t xml:space="preserve">union find, if union return false, loop exists, at end size must equal n, or its not connected; dfs to get size and check for loop, since each edge is double, before dfs on neighbor of N, remove N from neighbor list of neighbor;</t>
   </si>
   <si>
     <t>https://youtu.be/8f1XPm4WOUc</t>
   </si>
   <si>
-    <t>Number of Connected Components in an Undirected Graph (Leetcode Premium)</t>
+    <t xml:space="preserve">Number of Connected Components in an Undirected Graph (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-connected-components-in-an-undirected-graph/</t>
   </si>
   <si>
-    <t>dfs on each node that hasn’t been visited, increment component count, adjacency list; bfs and union find are possible;</t>
+    <t xml:space="preserve">dfs on each node that hasn’t been visited, increment component count, adjacency list; bfs and union find are possible;</t>
   </si>
   <si>
     <t>https://youtu.be/A8NUOmlwOlM</t>
@@ -460,136 +462,136 @@
     <t>Interval</t>
   </si>
   <si>
-    <t>Insert Interval</t>
+    <t xml:space="preserve">Insert Interval</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/insert-interval/</t>
   </si>
   <si>
-    <t>insert new interval in order, then merge intervals; newinterval could only merge with one interval that comes before it, then add remaining intervals;</t>
+    <t xml:space="preserve">insert new interval in order, then merge intervals; newinterval could only merge with one interval that comes before it, then add remaining intervals;</t>
   </si>
   <si>
     <t>https://youtu.be/44H3cEC2fFM</t>
   </si>
   <si>
-    <t>Merge Intervals</t>
+    <t xml:space="preserve">Merge Intervals</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-intervals/</t>
   </si>
   <si>
-    <t>sort each interval, overlapping intervals should be adjacent, iterate and build solution; also graph method, less efficient, more complicated</t>
+    <t xml:space="preserve">sort each interval, overlapping intervals should be adjacent, iterate and build solution; also graph method, less efficient, more complicated</t>
   </si>
   <si>
     <t>https://youtu.be/nONCGxWoUfM</t>
   </si>
   <si>
-    <t>Non-overlapping Intervals</t>
+    <t xml:space="preserve">Non-overlapping Intervals</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/non-overlapping-intervals/</t>
   </si>
   <si>
-    <t>instead of removing, count how max num of intervals you can include, sort intervals, dp to compute max intervals up until the i-th interval;</t>
+    <t xml:space="preserve">instead of removing, count how max num of intervals you can include, sort intervals, dp to compute max intervals up until the i-th interval;</t>
   </si>
   <si>
     <t>https://youtu.be/PaJxqZVPhbg</t>
   </si>
   <si>
-    <t>Meeting Rooms (Leetcode Premium)</t>
+    <t xml:space="preserve">Meeting Rooms (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/meeting-rooms/</t>
   </si>
   <si>
-    <t>sort intervals by start time, if second interval doesn’t overlap with first, then third def wont overlap with first;</t>
+    <t xml:space="preserve">sort intervals by start time, if second interval doesn’t overlap with first, then third def wont overlap with first;</t>
   </si>
   <si>
     <t>https://youtu.be/FdzJmTCVyJU</t>
   </si>
   <si>
-    <t>Meeting Rooms II (Leetcode Premium)</t>
+    <t xml:space="preserve">Meeting Rooms II (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/meeting-rooms-ii/</t>
   </si>
   <si>
-    <t>we care about the points in time where we are starting/ending a meeting, we already are given those, just separate start/end and traverse counting num of meetings going at these points in time; for each meeting check if a prev meeting has finished before curr started, using min heap;</t>
+    <t xml:space="preserve">we care about the points in time where we are starting/ending a meeting, we already are given those, just separate start/end and traverse counting num of meetings going at these points in time; for each meeting check if a prev meeting has finished before curr started, using min heap;</t>
   </si>
   <si>
     <t>https://youtu.be/G0_I-ZF0S38</t>
   </si>
   <si>
-    <t>Linked List</t>
-  </si>
-  <si>
-    <t>Reverse a Linked List</t>
+    <t xml:space="preserve">Linked List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reverse a Linked List</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-linked-list/</t>
   </si>
   <si>
-    <t>iterate through maintaining cur and prev; recursively reverse, return new head of list</t>
+    <t xml:space="preserve">iterate through maintaining cur and prev; recursively reverse, return new head of list</t>
   </si>
   <si>
     <t>https://youtu.be/gBTe7lFR3vc</t>
   </si>
   <si>
-    <t>Detect Cycle in a Linked List</t>
+    <t xml:space="preserve">Detect Cycle in a Linked List</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/linked-list-cycle/</t>
   </si>
   <si>
-    <t>dict to remember visited nodes; two pointers at different speeds, if they meet there is loop</t>
+    <t xml:space="preserve">dict to remember visited nodes; two pointers at different speeds, if they meet there is loop</t>
   </si>
   <si>
     <t>https://youtu.be/XIdigk956u0</t>
   </si>
   <si>
-    <t>Merge Two Sorted Lists</t>
+    <t xml:space="preserve">Merge Two Sorted Lists</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-two-sorted-lists/</t>
   </si>
   <si>
-    <t>insert each node from one list into the other</t>
+    <t xml:space="preserve">insert each node from one list into the other</t>
   </si>
   <si>
     <t>https://youtu.be/q5a5OiGbT6Q</t>
   </si>
   <si>
-    <t>Merge K Sorted Lists</t>
+    <t xml:space="preserve">Merge K Sorted Lists</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/merge-k-sorted-lists/</t>
   </si>
   <si>
-    <t>divied and conquer, merge lists, N totalnodes, k-lists, O(N*logk). For each list, find min val, insert it into list, use priorityQ to optimize finding min O(N*logk)</t>
+    <t xml:space="preserve">divied and conquer, merge lists, N totalnodes, k-lists, O(N*logk). For each list, find min val, insert it into list, use priorityQ to optimize finding min O(N*logk)</t>
   </si>
   <si>
     <t>https://youtu.be/XVuQxVej6y8</t>
   </si>
   <si>
-    <t>Remove Nth Node From End Of List</t>
+    <t xml:space="preserve">Remove Nth Node From End Of List</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
   </si>
   <si>
-    <t>use dummy node at head of list, compute len of list; two pointers, second has offset of n from first;</t>
+    <t xml:space="preserve">use dummy node at head of list, compute len of list; two pointers, second has offset of n from first;</t>
   </si>
   <si>
     <t>https://youtu.be/S5bfdUTrKLM</t>
   </si>
   <si>
-    <t>Reorder List</t>
+    <t xml:space="preserve">Reorder List</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/reorder-list/</t>
   </si>
   <si>
-    <t>reverse second half of list, then easily reorder it; non-optimal way is to store list in array;</t>
+    <t xml:space="preserve">reverse second half of list, then easily reorder it; non-optimal way is to store list in array;</t>
   </si>
   <si>
     <t>https://youtu.be/T41rL0L3Pnw</t>
@@ -598,49 +600,49 @@
     <t>Matrix</t>
   </si>
   <si>
-    <t>Set Matrix Zeroes</t>
+    <t xml:space="preserve">Set Matrix Zeroes</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/set-matrix-zeroes/</t>
   </si>
   <si>
-    <t>use sets to keep track of all rows, cols to zero out, after, for each num if it is in a zero row or col then change it to 0; flag first cell in row, and col to mark row/col that needs to be zeroed;</t>
+    <t xml:space="preserve">use sets to keep track of all rows, cols to zero out, after, for each num if it is in a zero row or col then change it to 0; flag first cell in row, and col to mark row/col that needs to be zeroed;</t>
   </si>
   <si>
     <t>https://youtu.be/BJnMZNwUk1M</t>
   </si>
   <si>
-    <t>Spiral Matrix</t>
+    <t xml:space="preserve">Spiral Matrix</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/spiral-matrix/</t>
   </si>
   <si>
-    <t>keep track of visited cells; keep track of boundaries, layer-by-layer;</t>
+    <t xml:space="preserve">keep track of visited cells; keep track of boundaries, layer-by-layer;</t>
   </si>
   <si>
     <t>https://youtu.be/fMSJSS7eO1w</t>
   </si>
   <si>
-    <t>Rotate Image</t>
+    <t xml:space="preserve">Rotate Image</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/rotate-image/</t>
   </si>
   <si>
-    <t>rotate layer-by-layer, use that it's a square as advantage, rotate positions in reverse order, store a in temp, a = b, b = c, c = d, d = temp;</t>
+    <t xml:space="preserve">rotate layer-by-layer, use that it's a square as advantage, rotate positions in reverse order, store a in temp, a = b, b = c, c = d, d = temp;</t>
   </si>
   <si>
     <t>https://youtu.be/pfiQ_PS1g8E</t>
   </si>
   <si>
-    <t>Word Search</t>
+    <t xml:space="preserve">Word Search</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search/</t>
   </si>
   <si>
-    <t>dfs on each cell, for each search remember visited cells, and remove cur visited cell right before you return from dfs;</t>
+    <t xml:space="preserve">dfs on each cell, for each search remember visited cells, and remove cur visited cell right before you return from dfs;</t>
   </si>
   <si>
     <t>https://youtu.be/wiGpQwVHdE0</t>
@@ -649,121 +651,121 @@
     <t>String</t>
   </si>
   <si>
-    <t>Longest Substring Without Repeating Characters</t>
+    <t xml:space="preserve">Longest Substring Without Repeating Characters</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
   </si>
   <si>
-    <t>sliding window, if we see same char twice within curr window, shift start position;</t>
+    <t xml:space="preserve">sliding window, if we see same char twice within curr window, shift start position;</t>
   </si>
   <si>
     <t>https://youtu.be/gqXU1UyA8pk</t>
   </si>
   <si>
-    <t>Longest Repeating Character Replacement</t>
+    <t xml:space="preserve">Longest Repeating Character Replacement</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
   </si>
   <si>
-    <t>PAY ATTENTION: limited to chars A-Z; for each capital char, check if it could create the longest repeating substr, use sliding window to optimize; check if windowlen=1 works, if yes, increment len, if not, shift window right;</t>
+    <t xml:space="preserve">PAY ATTENTION: limited to chars A-Z; for each capital char, check if it could create the longest repeating substr, use sliding window to optimize; check if windowlen=1 works, if yes, increment len, if not, shift window right;</t>
   </si>
   <si>
     <t>https://youtu.be/jSto0O4AJbM</t>
   </si>
   <si>
-    <t>Minimum Window Substring</t>
+    <t xml:space="preserve">Minimum Window Substring</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-window-substring/</t>
   </si>
   <si>
-    <t>need is num of unique char in T, HAVE is num of char we have valid count for, sliding window, move right until valid, if valid, increment left until invalid, to check validity keep track if the count of each unique char is satisfied;</t>
+    <t xml:space="preserve">need is num of unique char in T, HAVE is num of char we have valid count for, sliding window, move right until valid, if valid, increment left until invalid, to check validity keep track if the count of each unique char is satisfied;</t>
   </si>
   <si>
     <t>https://youtu.be/9UtInBqnCgA</t>
   </si>
   <si>
-    <t>Valid Anagram</t>
+    <t xml:space="preserve">Valid Anagram</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/</t>
   </si>
   <si>
-    <t>hashmap to count each char in str1, decrement for str2;</t>
+    <t xml:space="preserve">hashmap to count each char in str1, decrement for str2;</t>
   </si>
   <si>
     <t>https://youtu.be/vzdNOK2oB2E</t>
   </si>
   <si>
-    <t>Group Anagrams</t>
+    <t xml:space="preserve">Group Anagrams</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/group-anagrams/</t>
   </si>
   <si>
-    <t>for each of 26 chars, use count of each char in each word as tuple for key in dict, value is the list of anagrams;</t>
+    <t xml:space="preserve">for each of 26 chars, use count of each char in each word as tuple for key in dict, value is the list of anagrams;</t>
   </si>
   <si>
     <t>https://youtu.be/WTzjTskDFMg</t>
   </si>
   <si>
-    <t>Valid Parentheses</t>
+    <t xml:space="preserve">Valid Parentheses</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-parentheses/</t>
   </si>
   <si>
-    <t>push opening brace on stack, pop if matching close brace, at end if stack empty, return true;</t>
+    <t xml:space="preserve">push opening brace on stack, pop if matching close brace, at end if stack empty, return true;</t>
   </si>
   <si>
     <t>https://youtu.be/jJXJ16kPFWg</t>
   </si>
   <si>
-    <t>Valid Palindrome</t>
+    <t xml:space="preserve">Valid Palindrome</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-palindrome/</t>
   </si>
   <si>
-    <t>left, right pointers, update left and right until each points at alphanum, compare left and right, continue until left &gt;= right, don’t distinguish between upper/lowercase;</t>
+    <t xml:space="preserve">left, right pointers, update left and right until each points at alphanum, compare left and right, continue until left &gt;= right, don’t distinguish between upper/lowercase;</t>
   </si>
   <si>
     <t>https://youtu.be/XYQecbcd6_c</t>
   </si>
   <si>
-    <t>Longest Palindromic Substring</t>
+    <t xml:space="preserve">Longest Palindromic Substring</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-palindromic-substring/</t>
   </si>
   <si>
-    <t>foreach char in str, consider it were the middle, consider if pali was odd or even;</t>
+    <t xml:space="preserve">foreach char in str, consider it were the middle, consider if pali was odd or even;</t>
   </si>
   <si>
     <t>https://youtu.be/4RACzI5-du8</t>
   </si>
   <si>
-    <t>Palindromic Substrings</t>
+    <t xml:space="preserve">Palindromic Substrings</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/palindromic-substrings/</t>
   </si>
   <si>
-    <t>same as longest palindromic string, each char in str as middle and expand outwards, do same for pali of even len; maybe read up on manachers alg</t>
+    <t xml:space="preserve">same as longest palindromic string, each char in str as middle and expand outwards, do same for pali of even len; maybe read up on manachers alg</t>
   </si>
   <si>
     <t>https://youtu.be/B1k_sxOSgv8</t>
   </si>
   <si>
-    <t>Encode and Decode Strings (Leetcode Premium)</t>
+    <t xml:space="preserve">Encode and Decode Strings (Leetcode Premium)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/encode-and-decode-strings/</t>
   </si>
   <si>
-    <t>store length of str before each string and delimiter like '#';</t>
+    <t xml:space="preserve">store length of str before each string and delimiter like '#';</t>
   </si>
   <si>
     <t>https://youtu.be/hTM3phVI6YQ</t>
@@ -772,317 +774,282 @@
     <t>Tree</t>
   </si>
   <si>
-    <t>Maximum Depth of Binary Tree</t>
+    <t xml:space="preserve">Maximum Depth of Binary Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
   </si>
   <si>
-    <t>recursive dfs to find max-depth of subtrees; iterative bfs to count number of levels in tree</t>
+    <t xml:space="preserve">recursive dfs to find max-depth of subtrees; iterative bfs to count number of levels in tree</t>
   </si>
   <si>
     <t>https://youtu.be/vRbbcKXCxOw</t>
   </si>
   <si>
-    <t>Same Tree</t>
+    <t xml:space="preserve">Same Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/same-tree/</t>
   </si>
   <si>
-    <t>recursive dfs on both trees at the same time; iterative bfs compare each level of both trees</t>
+    <t xml:space="preserve">recursive dfs on both trees at the same time; iterative bfs compare each level of both trees</t>
   </si>
   <si>
     <t>https://youtu.be/OnSn2XEQ4MY</t>
   </si>
   <si>
-    <t>Invert/Flip Binary Tree</t>
+    <t xml:space="preserve">Invert/Flip Binary Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/invert-binary-tree/</t>
   </si>
   <si>
-    <t>recursive dfs to invert subtrees; bfs to invert levels, use collections.deque; iterative dfs is easy with stack if doing pre-order traversal</t>
+    <t xml:space="preserve">recursive dfs to invert subtrees; bfs to invert levels, use collections.deque; iterative dfs is easy with stack if doing pre-order traversal</t>
   </si>
   <si>
     <t>https://youtu.be/Hr5cWUld4vU</t>
   </si>
   <si>
-    <t>Binary Tree Maximum Path Sum</t>
+    <t xml:space="preserve">Binary Tree Maximum Path Sum</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
   </si>
   <si>
-    <t>helper returns maxpathsum without splitting branches, inside helper we also update maxSum by computing maxpathsum WITH a split;</t>
+    <t xml:space="preserve">helper returns maxpathsum without splitting branches, inside helper we also update maxSum by computing maxpathsum WITH a split;</t>
   </si>
   <si>
     <t>https://youtu.be/6ZnyEApgFYg</t>
   </si>
   <si>
-    <t>Binary Tree Level Order Traversal</t>
+    <t xml:space="preserve">Binary Tree Level Order Traversal</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-level-order-traversal/</t>
   </si>
   <si>
-    <t>iterative bfs, add prev level which doesn't have any nulls to the result;</t>
+    <t xml:space="preserve">iterative bfs, add prev level which doesn't have any nulls to the result;</t>
   </si>
   <si>
     <t>https://youtu.be/u4JAi2JJhI8</t>
   </si>
   <si>
-    <t>Serialize and Deserialize Binary Tree</t>
+    <t xml:space="preserve">Serialize and Deserialize Binary Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
   </si>
   <si>
-    <t>bfs every single non-null node is added to string, and it's children are added too, even if they're null, deserialize by adding each non-null node to queue, deque node, it's children are next two nodes in string;</t>
+    <t xml:space="preserve">bfs every single non-null node is added to string, and it's children are added too, even if they're null, deserialize by adding each non-null node to queue, deque node, it's children are next two nodes in string;</t>
   </si>
   <si>
     <t>https://youtu.be/E36O5SWp-LE</t>
   </si>
   <si>
-    <t>Subtree of Another Tree</t>
+    <t xml:space="preserve">Subtree of Another Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
   </si>
   <si>
-    <t>traverse s to check if any subtree in s equals t; merkle hashing?</t>
+    <t xml:space="preserve">traverse s to check if any subtree in s equals t; merkle hashing?</t>
   </si>
   <si>
     <t>https://youtu.be/ihj4IQGZ2zc</t>
   </si>
   <si>
-    <t>Construct Binary Tree from Preorder and Inorder Traversal</t>
+    <t xml:space="preserve">Construct Binary Tree from Preorder and Inorder Traversal</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
   </si>
   <si>
-    <t>first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree, recursively build subtrees;</t>
+    <t xml:space="preserve">first element in pre-order is root, elements left of root in in-order are left subtree, right of root are right subtree, recursively build subtrees;</t>
   </si>
   <si>
     <t>https://youtu.be/s6ATEkipzow</t>
   </si>
   <si>
-    <t>Validate Binary Search Tree</t>
+    <t xml:space="preserve">Validate Binary Search Tree</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/validate-binary-search-tree/</t>
   </si>
   <si>
-    <t>trick is use built in python min/max values float("inf"), "-inf", as parameters; iterative in-order traversal, check each val is greater than prev;</t>
+    <t xml:space="preserve">trick is use built in python min/max values float("inf"), "-inf", as parameters; iterative in-order traversal, check each val is greater than prev;</t>
   </si>
   <si>
     <t>https://youtu.be/5LUXSvjmGCw</t>
   </si>
   <si>
-    <t>Kth Smallest Element in a BST</t>
+    <t xml:space="preserve">Kth Smallest Element in a BST</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/kth-smallest-element-in-a-bst/</t>
   </si>
   <si>
-    <t>non-optimal store tree in sorted array; iterative dfs in-order and return the kth element processed, go left until null, pop, go right once;</t>
+    <t xml:space="preserve">non-optimal store tree in sorted array; iterative dfs in-order and return the kth element processed, go left until null, pop, go right once;</t>
   </si>
   <si>
     <t>https://youtu.be/gs2LMfuOR9k</t>
   </si>
   <si>
-    <t>Lowest Common Ancestor of BST</t>
+    <t xml:space="preserve">Lowest Common Ancestor of BST</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
   </si>
   <si>
-    <t>compare p, q values to curr node, base case: one is in left, other in right subtree, then curr is lca;</t>
+    <t xml:space="preserve">compare p, q values to curr node, base case: one is in left, other in right subtree, then curr is lca;</t>
   </si>
   <si>
     <t>https://youtu.be/oobqoCJlHA0</t>
   </si>
   <si>
-    <t>Implement Trie (Prefix Tree)</t>
+    <t xml:space="preserve">Implement Trie (Prefix Tree)</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-trie-prefix-tree/</t>
   </si>
   <si>
-    <t>node has children characters, and bool if its an ending character, node DOESN’T have or need char, since root node doesn’t have a char, only children;</t>
+    <t xml:space="preserve">node has children characters, and bool if its an ending character, node DOESN’T have or need char, since root node doesn’t have a char, only children;</t>
   </si>
   <si>
     <t>https://youtu.be/BTf05gs_8iU</t>
   </si>
   <si>
-    <t>Add and Search Word</t>
+    <t xml:space="preserve">Add and Search Word</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/add-and-search-word-data-structure-design/</t>
   </si>
   <si>
-    <t>if char = "." run search for remaining portion of word on all of curr nodes children;</t>
+    <t xml:space="preserve">if char = "." run search for remaining portion of word on all of curr nodes children;</t>
   </si>
   <si>
     <t>https://youtu.be/asbcE9mZz_U</t>
   </si>
   <si>
-    <t>Word Search II</t>
+    <t xml:space="preserve">Word Search II</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/word-search-ii/</t>
   </si>
   <si>
-    <t>trick: I though use trie to store the grid, reverse thinking, instead store dictionary words, dfs on each cell, check if cell's char exists as child of root node in trie, if it does, update currNode, and check neighbors, a word could exist multiple times in grid, so don’t add duplicates;</t>
+    <t xml:space="preserve">trick: I though use trie to store the grid, reverse thinking, instead store dictionary words, dfs on each cell, check if cell's char exists as child of root node in trie, if it does, update currNode, and check neighbors, a word could exist multiple times in grid, so don’t add duplicates;</t>
   </si>
   <si>
     <t>Heap</t>
   </si>
   <si>
-    <t>we always want the min of the current frontier, we can store frontier in heap of size k for efficient pop/push; divide and conquer merging lists;</t>
+    <t xml:space="preserve">we always want the min of the current frontier, we can store frontier in heap of size k for efficient pop/push; divide and conquer merging lists;</t>
   </si>
   <si>
     <t>https://youtu.be/YPTqKIgVk-k</t>
   </si>
   <si>
-    <t>Top K Frequent Elements</t>
+    <t xml:space="preserve">Top K Frequent Elements</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/top-k-frequent-elements/</t>
   </si>
   <si>
-    <t>minheap that’s kept at size k, if its bigger than k pop the min, by the end it should be left with k largest;</t>
+    <t xml:space="preserve">minheap that’s kept at size k, if its bigger than k pop the min, by the end it should be left with k largest;</t>
   </si>
   <si>
     <t>https://youtu.be/itmhHWaHupI</t>
   </si>
   <si>
-    <t>Find Median from Data Stream</t>
+    <t xml:space="preserve">Find Median from Data Stream</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/find-median-from-data-stream/</t>
   </si>
   <si>
-    <t>maintain curr median, and all num greater than med in a minHeap, and all num less than med in a maxHeap, after every insertion update median depending on odd/even num of elements;</t>
+    <t xml:space="preserve">maintain curr median, and all num greater than med in a minHeap, and all num less than med in a maxHeap, after every insertion update median depending on odd/even num of elements;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
+      <sz val="10.000000"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
-      <color rgb="FF000000"/>
+      <sz val="18.000000"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="18.0"/>
+      <sz val="18.000000"/>
       <color theme="4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11.000000"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11.000000"/>
+      <color indexed="65"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <color rgb="FF000000"/>
       <name val="Roboto"/>
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1092,7 +1059,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1102,8 +1069,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
+        <fgColor indexed="6"/>
+        <bgColor indexed="6"/>
       </patternFill>
     </fill>
     <fill>
@@ -1132,42 +1099,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="65"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="7">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
+      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1176,9 +1156,11 @@
       <right style="thin">
         <color rgb="FFA5A5A5"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1193,104 +1175,346 @@
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FFA5A5A5"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFA5A5A5"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA5A5A5"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="8" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="6" fillId="2" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="21">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="3" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="5" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="6" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="12" fillId="7" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="5" fillId="8" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="13" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="14" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1347,7 +1571,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1373,7 +1597,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1425,16 +1649,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1450,7 +1686,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1480,33 +1716,38 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.630000000000001" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.38"/>
-    <col customWidth="1" min="2" max="2" width="26.13"/>
-    <col customWidth="1" min="3" max="3" width="27.75"/>
+    <col customWidth="1" min="1" max="1" width="35.380000000000003"/>
+    <col customWidth="1" min="2" max="2" width="26.129999999999999"/>
+    <col customWidth="1" min="3" max="3" width="35.8515625"/>
+    <col customWidth="1" min="4" max="4" width="63.00390625"/>
     <col customWidth="1" min="5" max="5" width="146.63"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="23.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" ht="23.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2385,7 +2626,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="9" t="s">
         <v>215</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -2402,7 +2643,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="19" t="s">
         <v>219</v>
       </c>
       <c r="B55" s="10" t="s">
@@ -2521,7 +2762,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="16" t="s">
         <v>247</v>
       </c>
       <c r="B62" s="17" t="s">
@@ -2827,2773 +3068,2773 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="22"/>
+      <c r="A80" s="20"/>
     </row>
     <row r="81">
-      <c r="A81" s="22"/>
+      <c r="A81" s="20"/>
     </row>
     <row r="82">
-      <c r="A82" s="22"/>
+      <c r="A82" s="20"/>
     </row>
     <row r="83">
-      <c r="A83" s="22"/>
+      <c r="A83" s="20"/>
     </row>
     <row r="84">
-      <c r="A84" s="22"/>
+      <c r="A84" s="20"/>
     </row>
     <row r="85">
-      <c r="A85" s="22"/>
+      <c r="A85" s="20"/>
     </row>
     <row r="86">
-      <c r="A86" s="22"/>
+      <c r="A86" s="20"/>
     </row>
     <row r="87">
-      <c r="A87" s="22"/>
+      <c r="A87" s="20"/>
     </row>
     <row r="88">
-      <c r="A88" s="22"/>
+      <c r="A88" s="20"/>
     </row>
     <row r="89">
-      <c r="A89" s="22"/>
+      <c r="A89" s="20"/>
     </row>
     <row r="90">
-      <c r="A90" s="22"/>
+      <c r="A90" s="20"/>
     </row>
     <row r="91">
-      <c r="A91" s="22"/>
+      <c r="A91" s="20"/>
     </row>
     <row r="92">
-      <c r="A92" s="22"/>
+      <c r="A92" s="20"/>
     </row>
     <row r="93">
-      <c r="A93" s="22"/>
+      <c r="A93" s="20"/>
     </row>
     <row r="94">
-      <c r="A94" s="22"/>
+      <c r="A94" s="20"/>
     </row>
     <row r="95">
-      <c r="A95" s="22"/>
+      <c r="A95" s="20"/>
     </row>
     <row r="96">
-      <c r="A96" s="22"/>
+      <c r="A96" s="20"/>
     </row>
     <row r="97">
-      <c r="A97" s="22"/>
+      <c r="A97" s="20"/>
     </row>
     <row r="98">
-      <c r="A98" s="22"/>
+      <c r="A98" s="20"/>
     </row>
     <row r="99">
-      <c r="A99" s="22"/>
+      <c r="A99" s="20"/>
     </row>
     <row r="100">
-      <c r="A100" s="22"/>
+      <c r="A100" s="20"/>
     </row>
     <row r="101">
-      <c r="A101" s="22"/>
+      <c r="A101" s="20"/>
     </row>
     <row r="102">
-      <c r="A102" s="22"/>
+      <c r="A102" s="20"/>
     </row>
     <row r="103">
-      <c r="A103" s="22"/>
+      <c r="A103" s="20"/>
     </row>
     <row r="104">
-      <c r="A104" s="22"/>
+      <c r="A104" s="20"/>
     </row>
     <row r="105">
-      <c r="A105" s="22"/>
+      <c r="A105" s="20"/>
     </row>
     <row r="106">
-      <c r="A106" s="22"/>
+      <c r="A106" s="20"/>
     </row>
     <row r="107">
-      <c r="A107" s="22"/>
+      <c r="A107" s="20"/>
     </row>
     <row r="108">
-      <c r="A108" s="22"/>
+      <c r="A108" s="20"/>
     </row>
     <row r="109">
-      <c r="A109" s="22"/>
+      <c r="A109" s="20"/>
     </row>
     <row r="110">
-      <c r="A110" s="22"/>
+      <c r="A110" s="20"/>
     </row>
     <row r="111">
-      <c r="A111" s="22"/>
+      <c r="A111" s="20"/>
     </row>
     <row r="112">
-      <c r="A112" s="22"/>
+      <c r="A112" s="20"/>
     </row>
     <row r="113">
-      <c r="A113" s="22"/>
+      <c r="A113" s="20"/>
     </row>
     <row r="114">
-      <c r="A114" s="22"/>
+      <c r="A114" s="20"/>
     </row>
     <row r="115">
-      <c r="A115" s="22"/>
+      <c r="A115" s="20"/>
     </row>
     <row r="116">
-      <c r="A116" s="22"/>
+      <c r="A116" s="20"/>
     </row>
     <row r="117">
-      <c r="A117" s="22"/>
+      <c r="A117" s="20"/>
     </row>
     <row r="118">
-      <c r="A118" s="22"/>
+      <c r="A118" s="20"/>
     </row>
     <row r="119">
-      <c r="A119" s="22"/>
+      <c r="A119" s="20"/>
     </row>
     <row r="120">
-      <c r="A120" s="22"/>
+      <c r="A120" s="20"/>
     </row>
     <row r="121">
-      <c r="A121" s="22"/>
+      <c r="A121" s="20"/>
     </row>
     <row r="122">
-      <c r="A122" s="22"/>
+      <c r="A122" s="20"/>
     </row>
     <row r="123">
-      <c r="A123" s="22"/>
+      <c r="A123" s="20"/>
     </row>
     <row r="124">
-      <c r="A124" s="22"/>
+      <c r="A124" s="20"/>
     </row>
     <row r="125">
-      <c r="A125" s="22"/>
+      <c r="A125" s="20"/>
     </row>
     <row r="126">
-      <c r="A126" s="22"/>
+      <c r="A126" s="20"/>
     </row>
     <row r="127">
-      <c r="A127" s="22"/>
+      <c r="A127" s="20"/>
     </row>
     <row r="128">
-      <c r="A128" s="22"/>
+      <c r="A128" s="20"/>
     </row>
     <row r="129">
-      <c r="A129" s="22"/>
+      <c r="A129" s="20"/>
     </row>
     <row r="130">
-      <c r="A130" s="22"/>
+      <c r="A130" s="20"/>
     </row>
     <row r="131">
-      <c r="A131" s="22"/>
+      <c r="A131" s="20"/>
     </row>
     <row r="132">
-      <c r="A132" s="22"/>
+      <c r="A132" s="20"/>
     </row>
     <row r="133">
-      <c r="A133" s="22"/>
+      <c r="A133" s="20"/>
     </row>
     <row r="134">
-      <c r="A134" s="22"/>
+      <c r="A134" s="20"/>
     </row>
     <row r="135">
-      <c r="A135" s="22"/>
+      <c r="A135" s="20"/>
     </row>
     <row r="136">
-      <c r="A136" s="22"/>
+      <c r="A136" s="20"/>
     </row>
     <row r="137">
-      <c r="A137" s="22"/>
+      <c r="A137" s="20"/>
     </row>
     <row r="138">
-      <c r="A138" s="22"/>
+      <c r="A138" s="20"/>
     </row>
     <row r="139">
-      <c r="A139" s="22"/>
+      <c r="A139" s="20"/>
     </row>
     <row r="140">
-      <c r="A140" s="22"/>
+      <c r="A140" s="20"/>
     </row>
     <row r="141">
-      <c r="A141" s="22"/>
+      <c r="A141" s="20"/>
     </row>
     <row r="142">
-      <c r="A142" s="22"/>
+      <c r="A142" s="20"/>
     </row>
     <row r="143">
-      <c r="A143" s="22"/>
+      <c r="A143" s="20"/>
     </row>
     <row r="144">
-      <c r="A144" s="22"/>
+      <c r="A144" s="20"/>
     </row>
     <row r="145">
-      <c r="A145" s="22"/>
+      <c r="A145" s="20"/>
     </row>
     <row r="146">
-      <c r="A146" s="22"/>
+      <c r="A146" s="20"/>
     </row>
     <row r="147">
-      <c r="A147" s="22"/>
+      <c r="A147" s="20"/>
     </row>
     <row r="148">
-      <c r="A148" s="22"/>
+      <c r="A148" s="20"/>
     </row>
     <row r="149">
-      <c r="A149" s="22"/>
+      <c r="A149" s="20"/>
     </row>
     <row r="150">
-      <c r="A150" s="22"/>
+      <c r="A150" s="20"/>
     </row>
     <row r="151">
-      <c r="A151" s="22"/>
+      <c r="A151" s="20"/>
     </row>
     <row r="152">
-      <c r="A152" s="22"/>
+      <c r="A152" s="20"/>
     </row>
     <row r="153">
-      <c r="A153" s="22"/>
+      <c r="A153" s="20"/>
     </row>
     <row r="154">
-      <c r="A154" s="22"/>
+      <c r="A154" s="20"/>
     </row>
     <row r="155">
-      <c r="A155" s="22"/>
+      <c r="A155" s="20"/>
     </row>
     <row r="156">
-      <c r="A156" s="22"/>
+      <c r="A156" s="20"/>
     </row>
     <row r="157">
-      <c r="A157" s="22"/>
+      <c r="A157" s="20"/>
     </row>
     <row r="158">
-      <c r="A158" s="22"/>
+      <c r="A158" s="20"/>
     </row>
     <row r="159">
-      <c r="A159" s="22"/>
+      <c r="A159" s="20"/>
     </row>
     <row r="160">
-      <c r="A160" s="22"/>
+      <c r="A160" s="20"/>
     </row>
     <row r="161">
-      <c r="A161" s="22"/>
+      <c r="A161" s="20"/>
     </row>
     <row r="162">
-      <c r="A162" s="22"/>
+      <c r="A162" s="20"/>
     </row>
     <row r="163">
-      <c r="A163" s="22"/>
+      <c r="A163" s="20"/>
     </row>
     <row r="164">
-      <c r="A164" s="22"/>
+      <c r="A164" s="20"/>
     </row>
     <row r="165">
-      <c r="A165" s="22"/>
+      <c r="A165" s="20"/>
     </row>
     <row r="166">
-      <c r="A166" s="22"/>
+      <c r="A166" s="20"/>
     </row>
     <row r="167">
-      <c r="A167" s="22"/>
+      <c r="A167" s="20"/>
     </row>
     <row r="168">
-      <c r="A168" s="22"/>
+      <c r="A168" s="20"/>
     </row>
     <row r="169">
-      <c r="A169" s="22"/>
+      <c r="A169" s="20"/>
     </row>
     <row r="170">
-      <c r="A170" s="22"/>
+      <c r="A170" s="20"/>
     </row>
     <row r="171">
-      <c r="A171" s="22"/>
+      <c r="A171" s="20"/>
     </row>
     <row r="172">
-      <c r="A172" s="22"/>
+      <c r="A172" s="20"/>
     </row>
     <row r="173">
-      <c r="A173" s="22"/>
+      <c r="A173" s="20"/>
     </row>
     <row r="174">
-      <c r="A174" s="22"/>
+      <c r="A174" s="20"/>
     </row>
     <row r="175">
-      <c r="A175" s="22"/>
+      <c r="A175" s="20"/>
     </row>
     <row r="176">
-      <c r="A176" s="22"/>
+      <c r="A176" s="20"/>
     </row>
     <row r="177">
-      <c r="A177" s="22"/>
+      <c r="A177" s="20"/>
     </row>
     <row r="178">
-      <c r="A178" s="22"/>
+      <c r="A178" s="20"/>
     </row>
     <row r="179">
-      <c r="A179" s="22"/>
+      <c r="A179" s="20"/>
     </row>
     <row r="180">
-      <c r="A180" s="22"/>
+      <c r="A180" s="20"/>
     </row>
     <row r="181">
-      <c r="A181" s="22"/>
+      <c r="A181" s="20"/>
     </row>
     <row r="182">
-      <c r="A182" s="22"/>
+      <c r="A182" s="20"/>
     </row>
     <row r="183">
-      <c r="A183" s="22"/>
+      <c r="A183" s="20"/>
     </row>
     <row r="184">
-      <c r="A184" s="22"/>
+      <c r="A184" s="20"/>
     </row>
     <row r="185">
-      <c r="A185" s="22"/>
+      <c r="A185" s="20"/>
     </row>
     <row r="186">
-      <c r="A186" s="22"/>
+      <c r="A186" s="20"/>
     </row>
     <row r="187">
-      <c r="A187" s="22"/>
+      <c r="A187" s="20"/>
     </row>
     <row r="188">
-      <c r="A188" s="22"/>
+      <c r="A188" s="20"/>
     </row>
     <row r="189">
-      <c r="A189" s="22"/>
+      <c r="A189" s="20"/>
     </row>
     <row r="190">
-      <c r="A190" s="22"/>
+      <c r="A190" s="20"/>
     </row>
     <row r="191">
-      <c r="A191" s="22"/>
+      <c r="A191" s="20"/>
     </row>
     <row r="192">
-      <c r="A192" s="22"/>
+      <c r="A192" s="20"/>
     </row>
     <row r="193">
-      <c r="A193" s="22"/>
+      <c r="A193" s="20"/>
     </row>
     <row r="194">
-      <c r="A194" s="22"/>
+      <c r="A194" s="20"/>
     </row>
     <row r="195">
-      <c r="A195" s="22"/>
+      <c r="A195" s="20"/>
     </row>
     <row r="196">
-      <c r="A196" s="22"/>
+      <c r="A196" s="20"/>
     </row>
     <row r="197">
-      <c r="A197" s="22"/>
+      <c r="A197" s="20"/>
     </row>
     <row r="198">
-      <c r="A198" s="22"/>
+      <c r="A198" s="20"/>
     </row>
     <row r="199">
-      <c r="A199" s="22"/>
+      <c r="A199" s="20"/>
     </row>
     <row r="200">
-      <c r="A200" s="22"/>
+      <c r="A200" s="20"/>
     </row>
     <row r="201">
-      <c r="A201" s="22"/>
+      <c r="A201" s="20"/>
     </row>
     <row r="202">
-      <c r="A202" s="22"/>
+      <c r="A202" s="20"/>
     </row>
     <row r="203">
-      <c r="A203" s="22"/>
+      <c r="A203" s="20"/>
     </row>
     <row r="204">
-      <c r="A204" s="22"/>
+      <c r="A204" s="20"/>
     </row>
     <row r="205">
-      <c r="A205" s="22"/>
+      <c r="A205" s="20"/>
     </row>
     <row r="206">
-      <c r="A206" s="22"/>
+      <c r="A206" s="20"/>
     </row>
     <row r="207">
-      <c r="A207" s="22"/>
+      <c r="A207" s="20"/>
     </row>
     <row r="208">
-      <c r="A208" s="22"/>
+      <c r="A208" s="20"/>
     </row>
     <row r="209">
-      <c r="A209" s="22"/>
+      <c r="A209" s="20"/>
     </row>
     <row r="210">
-      <c r="A210" s="22"/>
+      <c r="A210" s="20"/>
     </row>
     <row r="211">
-      <c r="A211" s="22"/>
+      <c r="A211" s="20"/>
     </row>
     <row r="212">
-      <c r="A212" s="22"/>
+      <c r="A212" s="20"/>
     </row>
     <row r="213">
-      <c r="A213" s="22"/>
+      <c r="A213" s="20"/>
     </row>
     <row r="214">
-      <c r="A214" s="22"/>
+      <c r="A214" s="20"/>
     </row>
     <row r="215">
-      <c r="A215" s="22"/>
+      <c r="A215" s="20"/>
     </row>
     <row r="216">
-      <c r="A216" s="22"/>
+      <c r="A216" s="20"/>
     </row>
     <row r="217">
-      <c r="A217" s="22"/>
+      <c r="A217" s="20"/>
     </row>
     <row r="218">
-      <c r="A218" s="22"/>
+      <c r="A218" s="20"/>
     </row>
     <row r="219">
-      <c r="A219" s="22"/>
+      <c r="A219" s="20"/>
     </row>
     <row r="220">
-      <c r="A220" s="22"/>
+      <c r="A220" s="20"/>
     </row>
     <row r="221">
-      <c r="A221" s="22"/>
+      <c r="A221" s="20"/>
     </row>
     <row r="222">
-      <c r="A222" s="22"/>
+      <c r="A222" s="20"/>
     </row>
     <row r="223">
-      <c r="A223" s="22"/>
+      <c r="A223" s="20"/>
     </row>
     <row r="224">
-      <c r="A224" s="22"/>
+      <c r="A224" s="20"/>
     </row>
     <row r="225">
-      <c r="A225" s="22"/>
+      <c r="A225" s="20"/>
     </row>
     <row r="226">
-      <c r="A226" s="22"/>
+      <c r="A226" s="20"/>
     </row>
     <row r="227">
-      <c r="A227" s="22"/>
+      <c r="A227" s="20"/>
     </row>
     <row r="228">
-      <c r="A228" s="22"/>
+      <c r="A228" s="20"/>
     </row>
     <row r="229">
-      <c r="A229" s="22"/>
+      <c r="A229" s="20"/>
     </row>
     <row r="230">
-      <c r="A230" s="22"/>
+      <c r="A230" s="20"/>
     </row>
     <row r="231">
-      <c r="A231" s="22"/>
+      <c r="A231" s="20"/>
     </row>
     <row r="232">
-      <c r="A232" s="22"/>
+      <c r="A232" s="20"/>
     </row>
     <row r="233">
-      <c r="A233" s="22"/>
+      <c r="A233" s="20"/>
     </row>
     <row r="234">
-      <c r="A234" s="22"/>
+      <c r="A234" s="20"/>
     </row>
     <row r="235">
-      <c r="A235" s="22"/>
+      <c r="A235" s="20"/>
     </row>
     <row r="236">
-      <c r="A236" s="22"/>
+      <c r="A236" s="20"/>
     </row>
     <row r="237">
-      <c r="A237" s="22"/>
+      <c r="A237" s="20"/>
     </row>
     <row r="238">
-      <c r="A238" s="22"/>
+      <c r="A238" s="20"/>
     </row>
     <row r="239">
-      <c r="A239" s="22"/>
+      <c r="A239" s="20"/>
     </row>
     <row r="240">
-      <c r="A240" s="22"/>
+      <c r="A240" s="20"/>
     </row>
     <row r="241">
-      <c r="A241" s="22"/>
+      <c r="A241" s="20"/>
     </row>
     <row r="242">
-      <c r="A242" s="22"/>
+      <c r="A242" s="20"/>
     </row>
     <row r="243">
-      <c r="A243" s="22"/>
+      <c r="A243" s="20"/>
     </row>
     <row r="244">
-      <c r="A244" s="22"/>
+      <c r="A244" s="20"/>
     </row>
     <row r="245">
-      <c r="A245" s="22"/>
+      <c r="A245" s="20"/>
     </row>
     <row r="246">
-      <c r="A246" s="22"/>
+      <c r="A246" s="20"/>
     </row>
     <row r="247">
-      <c r="A247" s="22"/>
+      <c r="A247" s="20"/>
     </row>
     <row r="248">
-      <c r="A248" s="22"/>
+      <c r="A248" s="20"/>
     </row>
     <row r="249">
-      <c r="A249" s="22"/>
+      <c r="A249" s="20"/>
     </row>
     <row r="250">
-      <c r="A250" s="22"/>
+      <c r="A250" s="20"/>
     </row>
     <row r="251">
-      <c r="A251" s="22"/>
+      <c r="A251" s="20"/>
     </row>
     <row r="252">
-      <c r="A252" s="22"/>
+      <c r="A252" s="20"/>
     </row>
     <row r="253">
-      <c r="A253" s="22"/>
+      <c r="A253" s="20"/>
     </row>
     <row r="254">
-      <c r="A254" s="22"/>
+      <c r="A254" s="20"/>
     </row>
     <row r="255">
-      <c r="A255" s="22"/>
+      <c r="A255" s="20"/>
     </row>
     <row r="256">
-      <c r="A256" s="22"/>
+      <c r="A256" s="20"/>
     </row>
     <row r="257">
-      <c r="A257" s="22"/>
+      <c r="A257" s="20"/>
     </row>
     <row r="258">
-      <c r="A258" s="22"/>
+      <c r="A258" s="20"/>
     </row>
     <row r="259">
-      <c r="A259" s="22"/>
+      <c r="A259" s="20"/>
     </row>
     <row r="260">
-      <c r="A260" s="22"/>
+      <c r="A260" s="20"/>
     </row>
     <row r="261">
-      <c r="A261" s="22"/>
+      <c r="A261" s="20"/>
     </row>
     <row r="262">
-      <c r="A262" s="22"/>
+      <c r="A262" s="20"/>
     </row>
     <row r="263">
-      <c r="A263" s="22"/>
+      <c r="A263" s="20"/>
     </row>
     <row r="264">
-      <c r="A264" s="22"/>
+      <c r="A264" s="20"/>
     </row>
     <row r="265">
-      <c r="A265" s="22"/>
+      <c r="A265" s="20"/>
     </row>
     <row r="266">
-      <c r="A266" s="22"/>
+      <c r="A266" s="20"/>
     </row>
     <row r="267">
-      <c r="A267" s="22"/>
+      <c r="A267" s="20"/>
     </row>
     <row r="268">
-      <c r="A268" s="22"/>
+      <c r="A268" s="20"/>
     </row>
     <row r="269">
-      <c r="A269" s="22"/>
+      <c r="A269" s="20"/>
     </row>
     <row r="270">
-      <c r="A270" s="22"/>
+      <c r="A270" s="20"/>
     </row>
     <row r="271">
-      <c r="A271" s="22"/>
+      <c r="A271" s="20"/>
     </row>
     <row r="272">
-      <c r="A272" s="22"/>
+      <c r="A272" s="20"/>
     </row>
     <row r="273">
-      <c r="A273" s="22"/>
+      <c r="A273" s="20"/>
     </row>
     <row r="274">
-      <c r="A274" s="22"/>
+      <c r="A274" s="20"/>
     </row>
     <row r="275">
-      <c r="A275" s="22"/>
+      <c r="A275" s="20"/>
     </row>
     <row r="276">
-      <c r="A276" s="22"/>
+      <c r="A276" s="20"/>
     </row>
     <row r="277">
-      <c r="A277" s="22"/>
+      <c r="A277" s="20"/>
     </row>
     <row r="278">
-      <c r="A278" s="22"/>
+      <c r="A278" s="20"/>
     </row>
     <row r="279">
-      <c r="A279" s="22"/>
+      <c r="A279" s="20"/>
     </row>
     <row r="280">
-      <c r="A280" s="22"/>
+      <c r="A280" s="20"/>
     </row>
     <row r="281">
-      <c r="A281" s="22"/>
+      <c r="A281" s="20"/>
     </row>
     <row r="282">
-      <c r="A282" s="22"/>
+      <c r="A282" s="20"/>
     </row>
     <row r="283">
-      <c r="A283" s="22"/>
+      <c r="A283" s="20"/>
     </row>
     <row r="284">
-      <c r="A284" s="22"/>
+      <c r="A284" s="20"/>
     </row>
     <row r="285">
-      <c r="A285" s="22"/>
+      <c r="A285" s="20"/>
     </row>
     <row r="286">
-      <c r="A286" s="22"/>
+      <c r="A286" s="20"/>
     </row>
     <row r="287">
-      <c r="A287" s="22"/>
+      <c r="A287" s="20"/>
     </row>
     <row r="288">
-      <c r="A288" s="22"/>
+      <c r="A288" s="20"/>
     </row>
     <row r="289">
-      <c r="A289" s="22"/>
+      <c r="A289" s="20"/>
     </row>
     <row r="290">
-      <c r="A290" s="22"/>
+      <c r="A290" s="20"/>
     </row>
     <row r="291">
-      <c r="A291" s="22"/>
+      <c r="A291" s="20"/>
     </row>
     <row r="292">
-      <c r="A292" s="22"/>
+      <c r="A292" s="20"/>
     </row>
     <row r="293">
-      <c r="A293" s="22"/>
+      <c r="A293" s="20"/>
     </row>
     <row r="294">
-      <c r="A294" s="22"/>
+      <c r="A294" s="20"/>
     </row>
     <row r="295">
-      <c r="A295" s="22"/>
+      <c r="A295" s="20"/>
     </row>
     <row r="296">
-      <c r="A296" s="22"/>
+      <c r="A296" s="20"/>
     </row>
     <row r="297">
-      <c r="A297" s="22"/>
+      <c r="A297" s="20"/>
     </row>
     <row r="298">
-      <c r="A298" s="22"/>
+      <c r="A298" s="20"/>
     </row>
     <row r="299">
-      <c r="A299" s="22"/>
+      <c r="A299" s="20"/>
     </row>
     <row r="300">
-      <c r="A300" s="22"/>
+      <c r="A300" s="20"/>
     </row>
     <row r="301">
-      <c r="A301" s="22"/>
+      <c r="A301" s="20"/>
     </row>
     <row r="302">
-      <c r="A302" s="22"/>
+      <c r="A302" s="20"/>
     </row>
     <row r="303">
-      <c r="A303" s="22"/>
+      <c r="A303" s="20"/>
     </row>
     <row r="304">
-      <c r="A304" s="22"/>
+      <c r="A304" s="20"/>
     </row>
     <row r="305">
-      <c r="A305" s="22"/>
+      <c r="A305" s="20"/>
     </row>
     <row r="306">
-      <c r="A306" s="22"/>
+      <c r="A306" s="20"/>
     </row>
     <row r="307">
-      <c r="A307" s="22"/>
+      <c r="A307" s="20"/>
     </row>
     <row r="308">
-      <c r="A308" s="22"/>
+      <c r="A308" s="20"/>
     </row>
     <row r="309">
-      <c r="A309" s="22"/>
+      <c r="A309" s="20"/>
     </row>
     <row r="310">
-      <c r="A310" s="22"/>
+      <c r="A310" s="20"/>
     </row>
     <row r="311">
-      <c r="A311" s="22"/>
+      <c r="A311" s="20"/>
     </row>
     <row r="312">
-      <c r="A312" s="22"/>
+      <c r="A312" s="20"/>
     </row>
     <row r="313">
-      <c r="A313" s="22"/>
+      <c r="A313" s="20"/>
     </row>
     <row r="314">
-      <c r="A314" s="22"/>
+      <c r="A314" s="20"/>
     </row>
     <row r="315">
-      <c r="A315" s="22"/>
+      <c r="A315" s="20"/>
     </row>
     <row r="316">
-      <c r="A316" s="22"/>
+      <c r="A316" s="20"/>
     </row>
     <row r="317">
-      <c r="A317" s="22"/>
+      <c r="A317" s="20"/>
     </row>
     <row r="318">
-      <c r="A318" s="22"/>
+      <c r="A318" s="20"/>
     </row>
     <row r="319">
-      <c r="A319" s="22"/>
+      <c r="A319" s="20"/>
     </row>
     <row r="320">
-      <c r="A320" s="22"/>
+      <c r="A320" s="20"/>
     </row>
     <row r="321">
-      <c r="A321" s="22"/>
+      <c r="A321" s="20"/>
     </row>
     <row r="322">
-      <c r="A322" s="22"/>
+      <c r="A322" s="20"/>
     </row>
     <row r="323">
-      <c r="A323" s="22"/>
+      <c r="A323" s="20"/>
     </row>
     <row r="324">
-      <c r="A324" s="22"/>
+      <c r="A324" s="20"/>
     </row>
     <row r="325">
-      <c r="A325" s="22"/>
+      <c r="A325" s="20"/>
     </row>
     <row r="326">
-      <c r="A326" s="22"/>
+      <c r="A326" s="20"/>
     </row>
     <row r="327">
-      <c r="A327" s="22"/>
+      <c r="A327" s="20"/>
     </row>
     <row r="328">
-      <c r="A328" s="22"/>
+      <c r="A328" s="20"/>
     </row>
     <row r="329">
-      <c r="A329" s="22"/>
+      <c r="A329" s="20"/>
     </row>
     <row r="330">
-      <c r="A330" s="22"/>
+      <c r="A330" s="20"/>
     </row>
     <row r="331">
-      <c r="A331" s="22"/>
+      <c r="A331" s="20"/>
     </row>
     <row r="332">
-      <c r="A332" s="22"/>
+      <c r="A332" s="20"/>
     </row>
     <row r="333">
-      <c r="A333" s="22"/>
+      <c r="A333" s="20"/>
     </row>
     <row r="334">
-      <c r="A334" s="22"/>
+      <c r="A334" s="20"/>
     </row>
     <row r="335">
-      <c r="A335" s="22"/>
+      <c r="A335" s="20"/>
     </row>
     <row r="336">
-      <c r="A336" s="22"/>
+      <c r="A336" s="20"/>
     </row>
     <row r="337">
-      <c r="A337" s="22"/>
+      <c r="A337" s="20"/>
     </row>
     <row r="338">
-      <c r="A338" s="22"/>
+      <c r="A338" s="20"/>
     </row>
     <row r="339">
-      <c r="A339" s="22"/>
+      <c r="A339" s="20"/>
     </row>
     <row r="340">
-      <c r="A340" s="22"/>
+      <c r="A340" s="20"/>
     </row>
     <row r="341">
-      <c r="A341" s="22"/>
+      <c r="A341" s="20"/>
     </row>
     <row r="342">
-      <c r="A342" s="22"/>
+      <c r="A342" s="20"/>
     </row>
     <row r="343">
-      <c r="A343" s="22"/>
+      <c r="A343" s="20"/>
     </row>
     <row r="344">
-      <c r="A344" s="22"/>
+      <c r="A344" s="20"/>
     </row>
     <row r="345">
-      <c r="A345" s="22"/>
+      <c r="A345" s="20"/>
     </row>
     <row r="346">
-      <c r="A346" s="22"/>
+      <c r="A346" s="20"/>
     </row>
     <row r="347">
-      <c r="A347" s="22"/>
+      <c r="A347" s="20"/>
     </row>
     <row r="348">
-      <c r="A348" s="22"/>
+      <c r="A348" s="20"/>
     </row>
     <row r="349">
-      <c r="A349" s="22"/>
+      <c r="A349" s="20"/>
     </row>
     <row r="350">
-      <c r="A350" s="22"/>
+      <c r="A350" s="20"/>
     </row>
     <row r="351">
-      <c r="A351" s="22"/>
+      <c r="A351" s="20"/>
     </row>
     <row r="352">
-      <c r="A352" s="22"/>
+      <c r="A352" s="20"/>
     </row>
     <row r="353">
-      <c r="A353" s="22"/>
+      <c r="A353" s="20"/>
     </row>
     <row r="354">
-      <c r="A354" s="22"/>
+      <c r="A354" s="20"/>
     </row>
     <row r="355">
-      <c r="A355" s="22"/>
+      <c r="A355" s="20"/>
     </row>
     <row r="356">
-      <c r="A356" s="22"/>
+      <c r="A356" s="20"/>
     </row>
     <row r="357">
-      <c r="A357" s="22"/>
+      <c r="A357" s="20"/>
     </row>
     <row r="358">
-      <c r="A358" s="22"/>
+      <c r="A358" s="20"/>
     </row>
     <row r="359">
-      <c r="A359" s="22"/>
+      <c r="A359" s="20"/>
     </row>
     <row r="360">
-      <c r="A360" s="22"/>
+      <c r="A360" s="20"/>
     </row>
     <row r="361">
-      <c r="A361" s="22"/>
+      <c r="A361" s="20"/>
     </row>
     <row r="362">
-      <c r="A362" s="22"/>
+      <c r="A362" s="20"/>
     </row>
     <row r="363">
-      <c r="A363" s="22"/>
+      <c r="A363" s="20"/>
     </row>
     <row r="364">
-      <c r="A364" s="22"/>
+      <c r="A364" s="20"/>
     </row>
     <row r="365">
-      <c r="A365" s="22"/>
+      <c r="A365" s="20"/>
     </row>
     <row r="366">
-      <c r="A366" s="22"/>
+      <c r="A366" s="20"/>
     </row>
     <row r="367">
-      <c r="A367" s="22"/>
+      <c r="A367" s="20"/>
     </row>
     <row r="368">
-      <c r="A368" s="22"/>
+      <c r="A368" s="20"/>
     </row>
     <row r="369">
-      <c r="A369" s="22"/>
+      <c r="A369" s="20"/>
     </row>
     <row r="370">
-      <c r="A370" s="22"/>
+      <c r="A370" s="20"/>
     </row>
     <row r="371">
-      <c r="A371" s="22"/>
+      <c r="A371" s="20"/>
     </row>
     <row r="372">
-      <c r="A372" s="22"/>
+      <c r="A372" s="20"/>
     </row>
     <row r="373">
-      <c r="A373" s="22"/>
+      <c r="A373" s="20"/>
     </row>
     <row r="374">
-      <c r="A374" s="22"/>
+      <c r="A374" s="20"/>
     </row>
     <row r="375">
-      <c r="A375" s="22"/>
+      <c r="A375" s="20"/>
     </row>
     <row r="376">
-      <c r="A376" s="22"/>
+      <c r="A376" s="20"/>
     </row>
     <row r="377">
-      <c r="A377" s="22"/>
+      <c r="A377" s="20"/>
     </row>
     <row r="378">
-      <c r="A378" s="22"/>
+      <c r="A378" s="20"/>
     </row>
     <row r="379">
-      <c r="A379" s="22"/>
+      <c r="A379" s="20"/>
     </row>
     <row r="380">
-      <c r="A380" s="22"/>
+      <c r="A380" s="20"/>
     </row>
     <row r="381">
-      <c r="A381" s="22"/>
+      <c r="A381" s="20"/>
     </row>
     <row r="382">
-      <c r="A382" s="22"/>
+      <c r="A382" s="20"/>
     </row>
     <row r="383">
-      <c r="A383" s="22"/>
+      <c r="A383" s="20"/>
     </row>
     <row r="384">
-      <c r="A384" s="22"/>
+      <c r="A384" s="20"/>
     </row>
     <row r="385">
-      <c r="A385" s="22"/>
+      <c r="A385" s="20"/>
     </row>
     <row r="386">
-      <c r="A386" s="22"/>
+      <c r="A386" s="20"/>
     </row>
     <row r="387">
-      <c r="A387" s="22"/>
+      <c r="A387" s="20"/>
     </row>
     <row r="388">
-      <c r="A388" s="22"/>
+      <c r="A388" s="20"/>
     </row>
     <row r="389">
-      <c r="A389" s="22"/>
+      <c r="A389" s="20"/>
     </row>
     <row r="390">
-      <c r="A390" s="22"/>
+      <c r="A390" s="20"/>
     </row>
     <row r="391">
-      <c r="A391" s="22"/>
+      <c r="A391" s="20"/>
     </row>
     <row r="392">
-      <c r="A392" s="22"/>
+      <c r="A392" s="20"/>
     </row>
     <row r="393">
-      <c r="A393" s="22"/>
+      <c r="A393" s="20"/>
     </row>
     <row r="394">
-      <c r="A394" s="22"/>
+      <c r="A394" s="20"/>
     </row>
     <row r="395">
-      <c r="A395" s="22"/>
+      <c r="A395" s="20"/>
     </row>
     <row r="396">
-      <c r="A396" s="22"/>
+      <c r="A396" s="20"/>
     </row>
     <row r="397">
-      <c r="A397" s="22"/>
+      <c r="A397" s="20"/>
     </row>
     <row r="398">
-      <c r="A398" s="22"/>
+      <c r="A398" s="20"/>
     </row>
     <row r="399">
-      <c r="A399" s="22"/>
+      <c r="A399" s="20"/>
     </row>
     <row r="400">
-      <c r="A400" s="22"/>
+      <c r="A400" s="20"/>
     </row>
     <row r="401">
-      <c r="A401" s="22"/>
+      <c r="A401" s="20"/>
     </row>
     <row r="402">
-      <c r="A402" s="22"/>
+      <c r="A402" s="20"/>
     </row>
     <row r="403">
-      <c r="A403" s="22"/>
+      <c r="A403" s="20"/>
     </row>
     <row r="404">
-      <c r="A404" s="22"/>
+      <c r="A404" s="20"/>
     </row>
     <row r="405">
-      <c r="A405" s="22"/>
+      <c r="A405" s="20"/>
     </row>
     <row r="406">
-      <c r="A406" s="22"/>
+      <c r="A406" s="20"/>
     </row>
     <row r="407">
-      <c r="A407" s="22"/>
+      <c r="A407" s="20"/>
     </row>
     <row r="408">
-      <c r="A408" s="22"/>
+      <c r="A408" s="20"/>
     </row>
     <row r="409">
-      <c r="A409" s="22"/>
+      <c r="A409" s="20"/>
     </row>
     <row r="410">
-      <c r="A410" s="22"/>
+      <c r="A410" s="20"/>
     </row>
     <row r="411">
-      <c r="A411" s="22"/>
+      <c r="A411" s="20"/>
     </row>
     <row r="412">
-      <c r="A412" s="22"/>
+      <c r="A412" s="20"/>
     </row>
     <row r="413">
-      <c r="A413" s="22"/>
+      <c r="A413" s="20"/>
     </row>
     <row r="414">
-      <c r="A414" s="22"/>
+      <c r="A414" s="20"/>
     </row>
     <row r="415">
-      <c r="A415" s="22"/>
+      <c r="A415" s="20"/>
     </row>
     <row r="416">
-      <c r="A416" s="22"/>
+      <c r="A416" s="20"/>
     </row>
     <row r="417">
-      <c r="A417" s="22"/>
+      <c r="A417" s="20"/>
     </row>
     <row r="418">
-      <c r="A418" s="22"/>
+      <c r="A418" s="20"/>
     </row>
     <row r="419">
-      <c r="A419" s="22"/>
+      <c r="A419" s="20"/>
     </row>
     <row r="420">
-      <c r="A420" s="22"/>
+      <c r="A420" s="20"/>
     </row>
     <row r="421">
-      <c r="A421" s="22"/>
+      <c r="A421" s="20"/>
     </row>
     <row r="422">
-      <c r="A422" s="22"/>
+      <c r="A422" s="20"/>
     </row>
     <row r="423">
-      <c r="A423" s="22"/>
+      <c r="A423" s="20"/>
     </row>
     <row r="424">
-      <c r="A424" s="22"/>
+      <c r="A424" s="20"/>
     </row>
     <row r="425">
-      <c r="A425" s="22"/>
+      <c r="A425" s="20"/>
     </row>
     <row r="426">
-      <c r="A426" s="22"/>
+      <c r="A426" s="20"/>
     </row>
     <row r="427">
-      <c r="A427" s="22"/>
+      <c r="A427" s="20"/>
     </row>
     <row r="428">
-      <c r="A428" s="22"/>
+      <c r="A428" s="20"/>
     </row>
     <row r="429">
-      <c r="A429" s="22"/>
+      <c r="A429" s="20"/>
     </row>
     <row r="430">
-      <c r="A430" s="22"/>
+      <c r="A430" s="20"/>
     </row>
     <row r="431">
-      <c r="A431" s="22"/>
+      <c r="A431" s="20"/>
     </row>
     <row r="432">
-      <c r="A432" s="22"/>
+      <c r="A432" s="20"/>
     </row>
     <row r="433">
-      <c r="A433" s="22"/>
+      <c r="A433" s="20"/>
     </row>
     <row r="434">
-      <c r="A434" s="22"/>
+      <c r="A434" s="20"/>
     </row>
     <row r="435">
-      <c r="A435" s="22"/>
+      <c r="A435" s="20"/>
     </row>
     <row r="436">
-      <c r="A436" s="22"/>
+      <c r="A436" s="20"/>
     </row>
     <row r="437">
-      <c r="A437" s="22"/>
+      <c r="A437" s="20"/>
     </row>
     <row r="438">
-      <c r="A438" s="22"/>
+      <c r="A438" s="20"/>
     </row>
     <row r="439">
-      <c r="A439" s="22"/>
+      <c r="A439" s="20"/>
     </row>
     <row r="440">
-      <c r="A440" s="22"/>
+      <c r="A440" s="20"/>
     </row>
     <row r="441">
-      <c r="A441" s="22"/>
+      <c r="A441" s="20"/>
     </row>
     <row r="442">
-      <c r="A442" s="22"/>
+      <c r="A442" s="20"/>
     </row>
     <row r="443">
-      <c r="A443" s="22"/>
+      <c r="A443" s="20"/>
     </row>
     <row r="444">
-      <c r="A444" s="22"/>
+      <c r="A444" s="20"/>
     </row>
     <row r="445">
-      <c r="A445" s="22"/>
+      <c r="A445" s="20"/>
     </row>
     <row r="446">
-      <c r="A446" s="22"/>
+      <c r="A446" s="20"/>
     </row>
     <row r="447">
-      <c r="A447" s="22"/>
+      <c r="A447" s="20"/>
     </row>
     <row r="448">
-      <c r="A448" s="22"/>
+      <c r="A448" s="20"/>
     </row>
     <row r="449">
-      <c r="A449" s="22"/>
+      <c r="A449" s="20"/>
     </row>
     <row r="450">
-      <c r="A450" s="22"/>
+      <c r="A450" s="20"/>
     </row>
     <row r="451">
-      <c r="A451" s="22"/>
+      <c r="A451" s="20"/>
     </row>
     <row r="452">
-      <c r="A452" s="22"/>
+      <c r="A452" s="20"/>
     </row>
     <row r="453">
-      <c r="A453" s="22"/>
+      <c r="A453" s="20"/>
     </row>
     <row r="454">
-      <c r="A454" s="22"/>
+      <c r="A454" s="20"/>
     </row>
     <row r="455">
-      <c r="A455" s="22"/>
+      <c r="A455" s="20"/>
     </row>
     <row r="456">
-      <c r="A456" s="22"/>
+      <c r="A456" s="20"/>
     </row>
     <row r="457">
-      <c r="A457" s="22"/>
+      <c r="A457" s="20"/>
     </row>
     <row r="458">
-      <c r="A458" s="22"/>
+      <c r="A458" s="20"/>
     </row>
     <row r="459">
-      <c r="A459" s="22"/>
+      <c r="A459" s="20"/>
     </row>
     <row r="460">
-      <c r="A460" s="22"/>
+      <c r="A460" s="20"/>
     </row>
     <row r="461">
-      <c r="A461" s="22"/>
+      <c r="A461" s="20"/>
     </row>
     <row r="462">
-      <c r="A462" s="22"/>
+      <c r="A462" s="20"/>
     </row>
     <row r="463">
-      <c r="A463" s="22"/>
+      <c r="A463" s="20"/>
     </row>
     <row r="464">
-      <c r="A464" s="22"/>
+      <c r="A464" s="20"/>
     </row>
     <row r="465">
-      <c r="A465" s="22"/>
+      <c r="A465" s="20"/>
     </row>
     <row r="466">
-      <c r="A466" s="22"/>
+      <c r="A466" s="20"/>
     </row>
     <row r="467">
-      <c r="A467" s="22"/>
+      <c r="A467" s="20"/>
     </row>
     <row r="468">
-      <c r="A468" s="22"/>
+      <c r="A468" s="20"/>
     </row>
     <row r="469">
-      <c r="A469" s="22"/>
+      <c r="A469" s="20"/>
     </row>
     <row r="470">
-      <c r="A470" s="22"/>
+      <c r="A470" s="20"/>
     </row>
     <row r="471">
-      <c r="A471" s="22"/>
+      <c r="A471" s="20"/>
     </row>
     <row r="472">
-      <c r="A472" s="22"/>
+      <c r="A472" s="20"/>
     </row>
     <row r="473">
-      <c r="A473" s="22"/>
+      <c r="A473" s="20"/>
     </row>
     <row r="474">
-      <c r="A474" s="22"/>
+      <c r="A474" s="20"/>
     </row>
     <row r="475">
-      <c r="A475" s="22"/>
+      <c r="A475" s="20"/>
     </row>
     <row r="476">
-      <c r="A476" s="22"/>
+      <c r="A476" s="20"/>
     </row>
     <row r="477">
-      <c r="A477" s="22"/>
+      <c r="A477" s="20"/>
     </row>
     <row r="478">
-      <c r="A478" s="22"/>
+      <c r="A478" s="20"/>
     </row>
     <row r="479">
-      <c r="A479" s="22"/>
+      <c r="A479" s="20"/>
     </row>
     <row r="480">
-      <c r="A480" s="22"/>
+      <c r="A480" s="20"/>
     </row>
     <row r="481">
-      <c r="A481" s="22"/>
+      <c r="A481" s="20"/>
     </row>
     <row r="482">
-      <c r="A482" s="22"/>
+      <c r="A482" s="20"/>
     </row>
     <row r="483">
-      <c r="A483" s="22"/>
+      <c r="A483" s="20"/>
     </row>
     <row r="484">
-      <c r="A484" s="22"/>
+      <c r="A484" s="20"/>
     </row>
     <row r="485">
-      <c r="A485" s="22"/>
+      <c r="A485" s="20"/>
     </row>
     <row r="486">
-      <c r="A486" s="22"/>
+      <c r="A486" s="20"/>
     </row>
     <row r="487">
-      <c r="A487" s="22"/>
+      <c r="A487" s="20"/>
     </row>
     <row r="488">
-      <c r="A488" s="22"/>
+      <c r="A488" s="20"/>
     </row>
     <row r="489">
-      <c r="A489" s="22"/>
+      <c r="A489" s="20"/>
     </row>
     <row r="490">
-      <c r="A490" s="22"/>
+      <c r="A490" s="20"/>
     </row>
     <row r="491">
-      <c r="A491" s="22"/>
+      <c r="A491" s="20"/>
     </row>
     <row r="492">
-      <c r="A492" s="22"/>
+      <c r="A492" s="20"/>
     </row>
     <row r="493">
-      <c r="A493" s="22"/>
+      <c r="A493" s="20"/>
     </row>
     <row r="494">
-      <c r="A494" s="22"/>
+      <c r="A494" s="20"/>
     </row>
     <row r="495">
-      <c r="A495" s="22"/>
+      <c r="A495" s="20"/>
     </row>
     <row r="496">
-      <c r="A496" s="22"/>
+      <c r="A496" s="20"/>
     </row>
     <row r="497">
-      <c r="A497" s="22"/>
+      <c r="A497" s="20"/>
     </row>
     <row r="498">
-      <c r="A498" s="22"/>
+      <c r="A498" s="20"/>
     </row>
     <row r="499">
-      <c r="A499" s="22"/>
+      <c r="A499" s="20"/>
     </row>
     <row r="500">
-      <c r="A500" s="22"/>
+      <c r="A500" s="20"/>
     </row>
     <row r="501">
-      <c r="A501" s="22"/>
+      <c r="A501" s="20"/>
     </row>
     <row r="502">
-      <c r="A502" s="22"/>
+      <c r="A502" s="20"/>
     </row>
     <row r="503">
-      <c r="A503" s="22"/>
+      <c r="A503" s="20"/>
     </row>
     <row r="504">
-      <c r="A504" s="22"/>
+      <c r="A504" s="20"/>
     </row>
     <row r="505">
-      <c r="A505" s="22"/>
+      <c r="A505" s="20"/>
     </row>
     <row r="506">
-      <c r="A506" s="22"/>
+      <c r="A506" s="20"/>
     </row>
     <row r="507">
-      <c r="A507" s="22"/>
+      <c r="A507" s="20"/>
     </row>
     <row r="508">
-      <c r="A508" s="22"/>
+      <c r="A508" s="20"/>
     </row>
     <row r="509">
-      <c r="A509" s="22"/>
+      <c r="A509" s="20"/>
     </row>
     <row r="510">
-      <c r="A510" s="22"/>
+      <c r="A510" s="20"/>
     </row>
     <row r="511">
-      <c r="A511" s="22"/>
+      <c r="A511" s="20"/>
     </row>
     <row r="512">
-      <c r="A512" s="22"/>
+      <c r="A512" s="20"/>
     </row>
     <row r="513">
-      <c r="A513" s="22"/>
+      <c r="A513" s="20"/>
     </row>
     <row r="514">
-      <c r="A514" s="22"/>
+      <c r="A514" s="20"/>
     </row>
     <row r="515">
-      <c r="A515" s="22"/>
+      <c r="A515" s="20"/>
     </row>
     <row r="516">
-      <c r="A516" s="22"/>
+      <c r="A516" s="20"/>
     </row>
     <row r="517">
-      <c r="A517" s="22"/>
+      <c r="A517" s="20"/>
     </row>
     <row r="518">
-      <c r="A518" s="22"/>
+      <c r="A518" s="20"/>
     </row>
     <row r="519">
-      <c r="A519" s="22"/>
+      <c r="A519" s="20"/>
     </row>
     <row r="520">
-      <c r="A520" s="22"/>
+      <c r="A520" s="20"/>
     </row>
     <row r="521">
-      <c r="A521" s="22"/>
+      <c r="A521" s="20"/>
     </row>
     <row r="522">
-      <c r="A522" s="22"/>
+      <c r="A522" s="20"/>
     </row>
     <row r="523">
-      <c r="A523" s="22"/>
+      <c r="A523" s="20"/>
     </row>
     <row r="524">
-      <c r="A524" s="22"/>
+      <c r="A524" s="20"/>
     </row>
     <row r="525">
-      <c r="A525" s="22"/>
+      <c r="A525" s="20"/>
     </row>
     <row r="526">
-      <c r="A526" s="22"/>
+      <c r="A526" s="20"/>
     </row>
     <row r="527">
-      <c r="A527" s="22"/>
+      <c r="A527" s="20"/>
     </row>
     <row r="528">
-      <c r="A528" s="22"/>
+      <c r="A528" s="20"/>
     </row>
     <row r="529">
-      <c r="A529" s="22"/>
+      <c r="A529" s="20"/>
     </row>
     <row r="530">
-      <c r="A530" s="22"/>
+      <c r="A530" s="20"/>
     </row>
     <row r="531">
-      <c r="A531" s="22"/>
+      <c r="A531" s="20"/>
     </row>
     <row r="532">
-      <c r="A532" s="22"/>
+      <c r="A532" s="20"/>
     </row>
     <row r="533">
-      <c r="A533" s="22"/>
+      <c r="A533" s="20"/>
     </row>
     <row r="534">
-      <c r="A534" s="22"/>
+      <c r="A534" s="20"/>
     </row>
     <row r="535">
-      <c r="A535" s="22"/>
+      <c r="A535" s="20"/>
     </row>
     <row r="536">
-      <c r="A536" s="22"/>
+      <c r="A536" s="20"/>
     </row>
     <row r="537">
-      <c r="A537" s="22"/>
+      <c r="A537" s="20"/>
     </row>
     <row r="538">
-      <c r="A538" s="22"/>
+      <c r="A538" s="20"/>
     </row>
     <row r="539">
-      <c r="A539" s="22"/>
+      <c r="A539" s="20"/>
     </row>
     <row r="540">
-      <c r="A540" s="22"/>
+      <c r="A540" s="20"/>
     </row>
     <row r="541">
-      <c r="A541" s="22"/>
+      <c r="A541" s="20"/>
     </row>
     <row r="542">
-      <c r="A542" s="22"/>
+      <c r="A542" s="20"/>
     </row>
     <row r="543">
-      <c r="A543" s="22"/>
+      <c r="A543" s="20"/>
     </row>
     <row r="544">
-      <c r="A544" s="22"/>
+      <c r="A544" s="20"/>
     </row>
     <row r="545">
-      <c r="A545" s="22"/>
+      <c r="A545" s="20"/>
     </row>
     <row r="546">
-      <c r="A546" s="22"/>
+      <c r="A546" s="20"/>
     </row>
     <row r="547">
-      <c r="A547" s="22"/>
+      <c r="A547" s="20"/>
     </row>
     <row r="548">
-      <c r="A548" s="22"/>
+      <c r="A548" s="20"/>
     </row>
     <row r="549">
-      <c r="A549" s="22"/>
+      <c r="A549" s="20"/>
     </row>
     <row r="550">
-      <c r="A550" s="22"/>
+      <c r="A550" s="20"/>
     </row>
     <row r="551">
-      <c r="A551" s="22"/>
+      <c r="A551" s="20"/>
     </row>
     <row r="552">
-      <c r="A552" s="22"/>
+      <c r="A552" s="20"/>
     </row>
     <row r="553">
-      <c r="A553" s="22"/>
+      <c r="A553" s="20"/>
     </row>
     <row r="554">
-      <c r="A554" s="22"/>
+      <c r="A554" s="20"/>
     </row>
     <row r="555">
-      <c r="A555" s="22"/>
+      <c r="A555" s="20"/>
     </row>
     <row r="556">
-      <c r="A556" s="22"/>
+      <c r="A556" s="20"/>
     </row>
     <row r="557">
-      <c r="A557" s="22"/>
+      <c r="A557" s="20"/>
     </row>
     <row r="558">
-      <c r="A558" s="22"/>
+      <c r="A558" s="20"/>
     </row>
     <row r="559">
-      <c r="A559" s="22"/>
+      <c r="A559" s="20"/>
     </row>
     <row r="560">
-      <c r="A560" s="22"/>
+      <c r="A560" s="20"/>
     </row>
     <row r="561">
-      <c r="A561" s="22"/>
+      <c r="A561" s="20"/>
     </row>
     <row r="562">
-      <c r="A562" s="22"/>
+      <c r="A562" s="20"/>
     </row>
     <row r="563">
-      <c r="A563" s="22"/>
+      <c r="A563" s="20"/>
     </row>
     <row r="564">
-      <c r="A564" s="22"/>
+      <c r="A564" s="20"/>
     </row>
     <row r="565">
-      <c r="A565" s="22"/>
+      <c r="A565" s="20"/>
     </row>
     <row r="566">
-      <c r="A566" s="22"/>
+      <c r="A566" s="20"/>
     </row>
     <row r="567">
-      <c r="A567" s="22"/>
+      <c r="A567" s="20"/>
     </row>
     <row r="568">
-      <c r="A568" s="22"/>
+      <c r="A568" s="20"/>
     </row>
     <row r="569">
-      <c r="A569" s="22"/>
+      <c r="A569" s="20"/>
     </row>
     <row r="570">
-      <c r="A570" s="22"/>
+      <c r="A570" s="20"/>
     </row>
     <row r="571">
-      <c r="A571" s="22"/>
+      <c r="A571" s="20"/>
     </row>
     <row r="572">
-      <c r="A572" s="22"/>
+      <c r="A572" s="20"/>
     </row>
     <row r="573">
-      <c r="A573" s="22"/>
+      <c r="A573" s="20"/>
     </row>
     <row r="574">
-      <c r="A574" s="22"/>
+      <c r="A574" s="20"/>
     </row>
     <row r="575">
-      <c r="A575" s="22"/>
+      <c r="A575" s="20"/>
     </row>
     <row r="576">
-      <c r="A576" s="22"/>
+      <c r="A576" s="20"/>
     </row>
     <row r="577">
-      <c r="A577" s="22"/>
+      <c r="A577" s="20"/>
     </row>
     <row r="578">
-      <c r="A578" s="22"/>
+      <c r="A578" s="20"/>
     </row>
     <row r="579">
-      <c r="A579" s="22"/>
+      <c r="A579" s="20"/>
     </row>
     <row r="580">
-      <c r="A580" s="22"/>
+      <c r="A580" s="20"/>
     </row>
     <row r="581">
-      <c r="A581" s="22"/>
+      <c r="A581" s="20"/>
     </row>
     <row r="582">
-      <c r="A582" s="22"/>
+      <c r="A582" s="20"/>
     </row>
     <row r="583">
-      <c r="A583" s="22"/>
+      <c r="A583" s="20"/>
     </row>
     <row r="584">
-      <c r="A584" s="22"/>
+      <c r="A584" s="20"/>
     </row>
     <row r="585">
-      <c r="A585" s="22"/>
+      <c r="A585" s="20"/>
     </row>
     <row r="586">
-      <c r="A586" s="22"/>
+      <c r="A586" s="20"/>
     </row>
     <row r="587">
-      <c r="A587" s="22"/>
+      <c r="A587" s="20"/>
     </row>
     <row r="588">
-      <c r="A588" s="22"/>
+      <c r="A588" s="20"/>
     </row>
     <row r="589">
-      <c r="A589" s="22"/>
+      <c r="A589" s="20"/>
     </row>
     <row r="590">
-      <c r="A590" s="22"/>
+      <c r="A590" s="20"/>
     </row>
     <row r="591">
-      <c r="A591" s="22"/>
+      <c r="A591" s="20"/>
     </row>
     <row r="592">
-      <c r="A592" s="22"/>
+      <c r="A592" s="20"/>
     </row>
     <row r="593">
-      <c r="A593" s="22"/>
+      <c r="A593" s="20"/>
     </row>
     <row r="594">
-      <c r="A594" s="22"/>
+      <c r="A594" s="20"/>
     </row>
     <row r="595">
-      <c r="A595" s="22"/>
+      <c r="A595" s="20"/>
     </row>
     <row r="596">
-      <c r="A596" s="22"/>
+      <c r="A596" s="20"/>
     </row>
     <row r="597">
-      <c r="A597" s="22"/>
+      <c r="A597" s="20"/>
     </row>
     <row r="598">
-      <c r="A598" s="22"/>
+      <c r="A598" s="20"/>
     </row>
     <row r="599">
-      <c r="A599" s="22"/>
+      <c r="A599" s="20"/>
     </row>
     <row r="600">
-      <c r="A600" s="22"/>
+      <c r="A600" s="20"/>
     </row>
     <row r="601">
-      <c r="A601" s="22"/>
+      <c r="A601" s="20"/>
     </row>
     <row r="602">
-      <c r="A602" s="22"/>
+      <c r="A602" s="20"/>
     </row>
     <row r="603">
-      <c r="A603" s="22"/>
+      <c r="A603" s="20"/>
     </row>
     <row r="604">
-      <c r="A604" s="22"/>
+      <c r="A604" s="20"/>
     </row>
     <row r="605">
-      <c r="A605" s="22"/>
+      <c r="A605" s="20"/>
     </row>
     <row r="606">
-      <c r="A606" s="22"/>
+      <c r="A606" s="20"/>
     </row>
     <row r="607">
-      <c r="A607" s="22"/>
+      <c r="A607" s="20"/>
     </row>
     <row r="608">
-      <c r="A608" s="22"/>
+      <c r="A608" s="20"/>
     </row>
     <row r="609">
-      <c r="A609" s="22"/>
+      <c r="A609" s="20"/>
     </row>
     <row r="610">
-      <c r="A610" s="22"/>
+      <c r="A610" s="20"/>
     </row>
     <row r="611">
-      <c r="A611" s="22"/>
+      <c r="A611" s="20"/>
     </row>
     <row r="612">
-      <c r="A612" s="22"/>
+      <c r="A612" s="20"/>
     </row>
     <row r="613">
-      <c r="A613" s="22"/>
+      <c r="A613" s="20"/>
     </row>
     <row r="614">
-      <c r="A614" s="22"/>
+      <c r="A614" s="20"/>
     </row>
     <row r="615">
-      <c r="A615" s="22"/>
+      <c r="A615" s="20"/>
     </row>
     <row r="616">
-      <c r="A616" s="22"/>
+      <c r="A616" s="20"/>
     </row>
     <row r="617">
-      <c r="A617" s="22"/>
+      <c r="A617" s="20"/>
     </row>
     <row r="618">
-      <c r="A618" s="22"/>
+      <c r="A618" s="20"/>
     </row>
     <row r="619">
-      <c r="A619" s="22"/>
+      <c r="A619" s="20"/>
     </row>
     <row r="620">
-      <c r="A620" s="22"/>
+      <c r="A620" s="20"/>
     </row>
     <row r="621">
-      <c r="A621" s="22"/>
+      <c r="A621" s="20"/>
     </row>
     <row r="622">
-      <c r="A622" s="22"/>
+      <c r="A622" s="20"/>
     </row>
     <row r="623">
-      <c r="A623" s="22"/>
+      <c r="A623" s="20"/>
     </row>
     <row r="624">
-      <c r="A624" s="22"/>
+      <c r="A624" s="20"/>
     </row>
     <row r="625">
-      <c r="A625" s="22"/>
+      <c r="A625" s="20"/>
     </row>
     <row r="626">
-      <c r="A626" s="22"/>
+      <c r="A626" s="20"/>
     </row>
     <row r="627">
-      <c r="A627" s="22"/>
+      <c r="A627" s="20"/>
     </row>
     <row r="628">
-      <c r="A628" s="22"/>
+      <c r="A628" s="20"/>
     </row>
     <row r="629">
-      <c r="A629" s="22"/>
+      <c r="A629" s="20"/>
     </row>
     <row r="630">
-      <c r="A630" s="22"/>
+      <c r="A630" s="20"/>
     </row>
     <row r="631">
-      <c r="A631" s="22"/>
+      <c r="A631" s="20"/>
     </row>
     <row r="632">
-      <c r="A632" s="22"/>
+      <c r="A632" s="20"/>
     </row>
     <row r="633">
-      <c r="A633" s="22"/>
+      <c r="A633" s="20"/>
     </row>
     <row r="634">
-      <c r="A634" s="22"/>
+      <c r="A634" s="20"/>
     </row>
     <row r="635">
-      <c r="A635" s="22"/>
+      <c r="A635" s="20"/>
     </row>
     <row r="636">
-      <c r="A636" s="22"/>
+      <c r="A636" s="20"/>
     </row>
     <row r="637">
-      <c r="A637" s="22"/>
+      <c r="A637" s="20"/>
     </row>
     <row r="638">
-      <c r="A638" s="22"/>
+      <c r="A638" s="20"/>
     </row>
     <row r="639">
-      <c r="A639" s="22"/>
+      <c r="A639" s="20"/>
     </row>
     <row r="640">
-      <c r="A640" s="22"/>
+      <c r="A640" s="20"/>
     </row>
     <row r="641">
-      <c r="A641" s="22"/>
+      <c r="A641" s="20"/>
     </row>
     <row r="642">
-      <c r="A642" s="22"/>
+      <c r="A642" s="20"/>
     </row>
     <row r="643">
-      <c r="A643" s="22"/>
+      <c r="A643" s="20"/>
     </row>
     <row r="644">
-      <c r="A644" s="22"/>
+      <c r="A644" s="20"/>
     </row>
     <row r="645">
-      <c r="A645" s="22"/>
+      <c r="A645" s="20"/>
     </row>
     <row r="646">
-      <c r="A646" s="22"/>
+      <c r="A646" s="20"/>
     </row>
     <row r="647">
-      <c r="A647" s="22"/>
+      <c r="A647" s="20"/>
     </row>
     <row r="648">
-      <c r="A648" s="22"/>
+      <c r="A648" s="20"/>
     </row>
     <row r="649">
-      <c r="A649" s="22"/>
+      <c r="A649" s="20"/>
     </row>
     <row r="650">
-      <c r="A650" s="22"/>
+      <c r="A650" s="20"/>
     </row>
     <row r="651">
-      <c r="A651" s="22"/>
+      <c r="A651" s="20"/>
     </row>
     <row r="652">
-      <c r="A652" s="22"/>
+      <c r="A652" s="20"/>
     </row>
     <row r="653">
-      <c r="A653" s="22"/>
+      <c r="A653" s="20"/>
     </row>
     <row r="654">
-      <c r="A654" s="22"/>
+      <c r="A654" s="20"/>
     </row>
     <row r="655">
-      <c r="A655" s="22"/>
+      <c r="A655" s="20"/>
     </row>
     <row r="656">
-      <c r="A656" s="22"/>
+      <c r="A656" s="20"/>
     </row>
     <row r="657">
-      <c r="A657" s="22"/>
+      <c r="A657" s="20"/>
     </row>
     <row r="658">
-      <c r="A658" s="22"/>
+      <c r="A658" s="20"/>
     </row>
     <row r="659">
-      <c r="A659" s="22"/>
+      <c r="A659" s="20"/>
     </row>
     <row r="660">
-      <c r="A660" s="22"/>
+      <c r="A660" s="20"/>
     </row>
     <row r="661">
-      <c r="A661" s="22"/>
+      <c r="A661" s="20"/>
     </row>
     <row r="662">
-      <c r="A662" s="22"/>
+      <c r="A662" s="20"/>
     </row>
     <row r="663">
-      <c r="A663" s="22"/>
+      <c r="A663" s="20"/>
     </row>
     <row r="664">
-      <c r="A664" s="22"/>
+      <c r="A664" s="20"/>
     </row>
     <row r="665">
-      <c r="A665" s="22"/>
+      <c r="A665" s="20"/>
     </row>
     <row r="666">
-      <c r="A666" s="22"/>
+      <c r="A666" s="20"/>
     </row>
     <row r="667">
-      <c r="A667" s="22"/>
+      <c r="A667" s="20"/>
     </row>
     <row r="668">
-      <c r="A668" s="22"/>
+      <c r="A668" s="20"/>
     </row>
     <row r="669">
-      <c r="A669" s="22"/>
+      <c r="A669" s="20"/>
     </row>
     <row r="670">
-      <c r="A670" s="22"/>
+      <c r="A670" s="20"/>
     </row>
     <row r="671">
-      <c r="A671" s="22"/>
+      <c r="A671" s="20"/>
     </row>
     <row r="672">
-      <c r="A672" s="22"/>
+      <c r="A672" s="20"/>
     </row>
     <row r="673">
-      <c r="A673" s="22"/>
+      <c r="A673" s="20"/>
     </row>
     <row r="674">
-      <c r="A674" s="22"/>
+      <c r="A674" s="20"/>
     </row>
     <row r="675">
-      <c r="A675" s="22"/>
+      <c r="A675" s="20"/>
     </row>
     <row r="676">
-      <c r="A676" s="22"/>
+      <c r="A676" s="20"/>
     </row>
     <row r="677">
-      <c r="A677" s="22"/>
+      <c r="A677" s="20"/>
     </row>
     <row r="678">
-      <c r="A678" s="22"/>
+      <c r="A678" s="20"/>
     </row>
     <row r="679">
-      <c r="A679" s="22"/>
+      <c r="A679" s="20"/>
     </row>
     <row r="680">
-      <c r="A680" s="22"/>
+      <c r="A680" s="20"/>
     </row>
     <row r="681">
-      <c r="A681" s="22"/>
+      <c r="A681" s="20"/>
     </row>
     <row r="682">
-      <c r="A682" s="22"/>
+      <c r="A682" s="20"/>
     </row>
     <row r="683">
-      <c r="A683" s="22"/>
+      <c r="A683" s="20"/>
     </row>
     <row r="684">
-      <c r="A684" s="22"/>
+      <c r="A684" s="20"/>
     </row>
     <row r="685">
-      <c r="A685" s="22"/>
+      <c r="A685" s="20"/>
     </row>
     <row r="686">
-      <c r="A686" s="22"/>
+      <c r="A686" s="20"/>
     </row>
     <row r="687">
-      <c r="A687" s="22"/>
+      <c r="A687" s="20"/>
     </row>
     <row r="688">
-      <c r="A688" s="22"/>
+      <c r="A688" s="20"/>
     </row>
     <row r="689">
-      <c r="A689" s="22"/>
+      <c r="A689" s="20"/>
     </row>
     <row r="690">
-      <c r="A690" s="22"/>
+      <c r="A690" s="20"/>
     </row>
     <row r="691">
-      <c r="A691" s="22"/>
+      <c r="A691" s="20"/>
     </row>
     <row r="692">
-      <c r="A692" s="22"/>
+      <c r="A692" s="20"/>
     </row>
     <row r="693">
-      <c r="A693" s="22"/>
+      <c r="A693" s="20"/>
     </row>
     <row r="694">
-      <c r="A694" s="22"/>
+      <c r="A694" s="20"/>
     </row>
     <row r="695">
-      <c r="A695" s="22"/>
+      <c r="A695" s="20"/>
     </row>
     <row r="696">
-      <c r="A696" s="22"/>
+      <c r="A696" s="20"/>
     </row>
     <row r="697">
-      <c r="A697" s="22"/>
+      <c r="A697" s="20"/>
     </row>
     <row r="698">
-      <c r="A698" s="22"/>
+      <c r="A698" s="20"/>
     </row>
     <row r="699">
-      <c r="A699" s="22"/>
+      <c r="A699" s="20"/>
     </row>
     <row r="700">
-      <c r="A700" s="22"/>
+      <c r="A700" s="20"/>
     </row>
     <row r="701">
-      <c r="A701" s="22"/>
+      <c r="A701" s="20"/>
     </row>
     <row r="702">
-      <c r="A702" s="22"/>
+      <c r="A702" s="20"/>
     </row>
     <row r="703">
-      <c r="A703" s="22"/>
+      <c r="A703" s="20"/>
     </row>
     <row r="704">
-      <c r="A704" s="22"/>
+      <c r="A704" s="20"/>
     </row>
     <row r="705">
-      <c r="A705" s="22"/>
+      <c r="A705" s="20"/>
     </row>
     <row r="706">
-      <c r="A706" s="22"/>
+      <c r="A706" s="20"/>
     </row>
     <row r="707">
-      <c r="A707" s="22"/>
+      <c r="A707" s="20"/>
     </row>
     <row r="708">
-      <c r="A708" s="22"/>
+      <c r="A708" s="20"/>
     </row>
     <row r="709">
-      <c r="A709" s="22"/>
+      <c r="A709" s="20"/>
     </row>
     <row r="710">
-      <c r="A710" s="22"/>
+      <c r="A710" s="20"/>
     </row>
     <row r="711">
-      <c r="A711" s="22"/>
+      <c r="A711" s="20"/>
     </row>
     <row r="712">
-      <c r="A712" s="22"/>
+      <c r="A712" s="20"/>
     </row>
     <row r="713">
-      <c r="A713" s="22"/>
+      <c r="A713" s="20"/>
     </row>
     <row r="714">
-      <c r="A714" s="22"/>
+      <c r="A714" s="20"/>
     </row>
     <row r="715">
-      <c r="A715" s="22"/>
+      <c r="A715" s="20"/>
     </row>
     <row r="716">
-      <c r="A716" s="22"/>
+      <c r="A716" s="20"/>
     </row>
     <row r="717">
-      <c r="A717" s="22"/>
+      <c r="A717" s="20"/>
     </row>
     <row r="718">
-      <c r="A718" s="22"/>
+      <c r="A718" s="20"/>
     </row>
     <row r="719">
-      <c r="A719" s="22"/>
+      <c r="A719" s="20"/>
     </row>
     <row r="720">
-      <c r="A720" s="22"/>
+      <c r="A720" s="20"/>
     </row>
     <row r="721">
-      <c r="A721" s="22"/>
+      <c r="A721" s="20"/>
     </row>
     <row r="722">
-      <c r="A722" s="22"/>
+      <c r="A722" s="20"/>
     </row>
     <row r="723">
-      <c r="A723" s="22"/>
+      <c r="A723" s="20"/>
     </row>
     <row r="724">
-      <c r="A724" s="22"/>
+      <c r="A724" s="20"/>
     </row>
     <row r="725">
-      <c r="A725" s="22"/>
+      <c r="A725" s="20"/>
     </row>
     <row r="726">
-      <c r="A726" s="22"/>
+      <c r="A726" s="20"/>
     </row>
     <row r="727">
-      <c r="A727" s="22"/>
+      <c r="A727" s="20"/>
     </row>
     <row r="728">
-      <c r="A728" s="22"/>
+      <c r="A728" s="20"/>
     </row>
     <row r="729">
-      <c r="A729" s="22"/>
+      <c r="A729" s="20"/>
     </row>
     <row r="730">
-      <c r="A730" s="22"/>
+      <c r="A730" s="20"/>
     </row>
     <row r="731">
-      <c r="A731" s="22"/>
+      <c r="A731" s="20"/>
     </row>
     <row r="732">
-      <c r="A732" s="22"/>
+      <c r="A732" s="20"/>
     </row>
     <row r="733">
-      <c r="A733" s="22"/>
+      <c r="A733" s="20"/>
     </row>
     <row r="734">
-      <c r="A734" s="22"/>
+      <c r="A734" s="20"/>
     </row>
     <row r="735">
-      <c r="A735" s="22"/>
+      <c r="A735" s="20"/>
     </row>
     <row r="736">
-      <c r="A736" s="22"/>
+      <c r="A736" s="20"/>
     </row>
     <row r="737">
-      <c r="A737" s="22"/>
+      <c r="A737" s="20"/>
     </row>
     <row r="738">
-      <c r="A738" s="22"/>
+      <c r="A738" s="20"/>
     </row>
     <row r="739">
-      <c r="A739" s="22"/>
+      <c r="A739" s="20"/>
     </row>
     <row r="740">
-      <c r="A740" s="22"/>
+      <c r="A740" s="20"/>
     </row>
     <row r="741">
-      <c r="A741" s="22"/>
+      <c r="A741" s="20"/>
     </row>
     <row r="742">
-      <c r="A742" s="22"/>
+      <c r="A742" s="20"/>
     </row>
     <row r="743">
-      <c r="A743" s="22"/>
+      <c r="A743" s="20"/>
     </row>
     <row r="744">
-      <c r="A744" s="22"/>
+      <c r="A744" s="20"/>
     </row>
     <row r="745">
-      <c r="A745" s="22"/>
+      <c r="A745" s="20"/>
     </row>
     <row r="746">
-      <c r="A746" s="22"/>
+      <c r="A746" s="20"/>
     </row>
     <row r="747">
-      <c r="A747" s="22"/>
+      <c r="A747" s="20"/>
     </row>
     <row r="748">
-      <c r="A748" s="22"/>
+      <c r="A748" s="20"/>
     </row>
     <row r="749">
-      <c r="A749" s="22"/>
+      <c r="A749" s="20"/>
     </row>
     <row r="750">
-      <c r="A750" s="22"/>
+      <c r="A750" s="20"/>
     </row>
     <row r="751">
-      <c r="A751" s="22"/>
+      <c r="A751" s="20"/>
     </row>
     <row r="752">
-      <c r="A752" s="22"/>
+      <c r="A752" s="20"/>
     </row>
     <row r="753">
-      <c r="A753" s="22"/>
+      <c r="A753" s="20"/>
     </row>
     <row r="754">
-      <c r="A754" s="22"/>
+      <c r="A754" s="20"/>
     </row>
     <row r="755">
-      <c r="A755" s="22"/>
+      <c r="A755" s="20"/>
     </row>
     <row r="756">
-      <c r="A756" s="22"/>
+      <c r="A756" s="20"/>
     </row>
     <row r="757">
-      <c r="A757" s="22"/>
+      <c r="A757" s="20"/>
     </row>
     <row r="758">
-      <c r="A758" s="22"/>
+      <c r="A758" s="20"/>
     </row>
     <row r="759">
-      <c r="A759" s="22"/>
+      <c r="A759" s="20"/>
     </row>
     <row r="760">
-      <c r="A760" s="22"/>
+      <c r="A760" s="20"/>
     </row>
     <row r="761">
-      <c r="A761" s="22"/>
+      <c r="A761" s="20"/>
     </row>
     <row r="762">
-      <c r="A762" s="22"/>
+      <c r="A762" s="20"/>
     </row>
     <row r="763">
-      <c r="A763" s="22"/>
+      <c r="A763" s="20"/>
     </row>
     <row r="764">
-      <c r="A764" s="22"/>
+      <c r="A764" s="20"/>
     </row>
     <row r="765">
-      <c r="A765" s="22"/>
+      <c r="A765" s="20"/>
     </row>
     <row r="766">
-      <c r="A766" s="22"/>
+      <c r="A766" s="20"/>
     </row>
     <row r="767">
-      <c r="A767" s="22"/>
+      <c r="A767" s="20"/>
     </row>
     <row r="768">
-      <c r="A768" s="22"/>
+      <c r="A768" s="20"/>
     </row>
     <row r="769">
-      <c r="A769" s="22"/>
+      <c r="A769" s="20"/>
     </row>
     <row r="770">
-      <c r="A770" s="22"/>
+      <c r="A770" s="20"/>
     </row>
     <row r="771">
-      <c r="A771" s="22"/>
+      <c r="A771" s="20"/>
     </row>
     <row r="772">
-      <c r="A772" s="22"/>
+      <c r="A772" s="20"/>
     </row>
     <row r="773">
-      <c r="A773" s="22"/>
+      <c r="A773" s="20"/>
     </row>
     <row r="774">
-      <c r="A774" s="22"/>
+      <c r="A774" s="20"/>
     </row>
     <row r="775">
-      <c r="A775" s="22"/>
+      <c r="A775" s="20"/>
     </row>
     <row r="776">
-      <c r="A776" s="22"/>
+      <c r="A776" s="20"/>
     </row>
     <row r="777">
-      <c r="A777" s="22"/>
+      <c r="A777" s="20"/>
     </row>
     <row r="778">
-      <c r="A778" s="22"/>
+      <c r="A778" s="20"/>
     </row>
     <row r="779">
-      <c r="A779" s="22"/>
+      <c r="A779" s="20"/>
     </row>
     <row r="780">
-      <c r="A780" s="22"/>
+      <c r="A780" s="20"/>
     </row>
     <row r="781">
-      <c r="A781" s="22"/>
+      <c r="A781" s="20"/>
     </row>
     <row r="782">
-      <c r="A782" s="22"/>
+      <c r="A782" s="20"/>
     </row>
     <row r="783">
-      <c r="A783" s="22"/>
+      <c r="A783" s="20"/>
     </row>
     <row r="784">
-      <c r="A784" s="22"/>
+      <c r="A784" s="20"/>
     </row>
     <row r="785">
-      <c r="A785" s="22"/>
+      <c r="A785" s="20"/>
     </row>
     <row r="786">
-      <c r="A786" s="22"/>
+      <c r="A786" s="20"/>
     </row>
     <row r="787">
-      <c r="A787" s="22"/>
+      <c r="A787" s="20"/>
     </row>
     <row r="788">
-      <c r="A788" s="22"/>
+      <c r="A788" s="20"/>
     </row>
     <row r="789">
-      <c r="A789" s="22"/>
+      <c r="A789" s="20"/>
     </row>
     <row r="790">
-      <c r="A790" s="22"/>
+      <c r="A790" s="20"/>
     </row>
     <row r="791">
-      <c r="A791" s="22"/>
+      <c r="A791" s="20"/>
     </row>
     <row r="792">
-      <c r="A792" s="22"/>
+      <c r="A792" s="20"/>
     </row>
     <row r="793">
-      <c r="A793" s="22"/>
+      <c r="A793" s="20"/>
     </row>
     <row r="794">
-      <c r="A794" s="22"/>
+      <c r="A794" s="20"/>
     </row>
     <row r="795">
-      <c r="A795" s="22"/>
+      <c r="A795" s="20"/>
     </row>
     <row r="796">
-      <c r="A796" s="22"/>
+      <c r="A796" s="20"/>
     </row>
     <row r="797">
-      <c r="A797" s="22"/>
+      <c r="A797" s="20"/>
     </row>
     <row r="798">
-      <c r="A798" s="22"/>
+      <c r="A798" s="20"/>
     </row>
     <row r="799">
-      <c r="A799" s="22"/>
+      <c r="A799" s="20"/>
     </row>
     <row r="800">
-      <c r="A800" s="22"/>
+      <c r="A800" s="20"/>
     </row>
     <row r="801">
-      <c r="A801" s="22"/>
+      <c r="A801" s="20"/>
     </row>
     <row r="802">
-      <c r="A802" s="22"/>
+      <c r="A802" s="20"/>
     </row>
     <row r="803">
-      <c r="A803" s="22"/>
+      <c r="A803" s="20"/>
     </row>
     <row r="804">
-      <c r="A804" s="22"/>
+      <c r="A804" s="20"/>
     </row>
     <row r="805">
-      <c r="A805" s="22"/>
+      <c r="A805" s="20"/>
     </row>
     <row r="806">
-      <c r="A806" s="22"/>
+      <c r="A806" s="20"/>
     </row>
     <row r="807">
-      <c r="A807" s="22"/>
+      <c r="A807" s="20"/>
     </row>
     <row r="808">
-      <c r="A808" s="22"/>
+      <c r="A808" s="20"/>
     </row>
     <row r="809">
-      <c r="A809" s="22"/>
+      <c r="A809" s="20"/>
     </row>
     <row r="810">
-      <c r="A810" s="22"/>
+      <c r="A810" s="20"/>
     </row>
     <row r="811">
-      <c r="A811" s="22"/>
+      <c r="A811" s="20"/>
     </row>
     <row r="812">
-      <c r="A812" s="22"/>
+      <c r="A812" s="20"/>
     </row>
     <row r="813">
-      <c r="A813" s="22"/>
+      <c r="A813" s="20"/>
     </row>
     <row r="814">
-      <c r="A814" s="22"/>
+      <c r="A814" s="20"/>
     </row>
     <row r="815">
-      <c r="A815" s="22"/>
+      <c r="A815" s="20"/>
     </row>
     <row r="816">
-      <c r="A816" s="22"/>
+      <c r="A816" s="20"/>
     </row>
     <row r="817">
-      <c r="A817" s="22"/>
+      <c r="A817" s="20"/>
     </row>
     <row r="818">
-      <c r="A818" s="22"/>
+      <c r="A818" s="20"/>
     </row>
     <row r="819">
-      <c r="A819" s="22"/>
+      <c r="A819" s="20"/>
     </row>
     <row r="820">
-      <c r="A820" s="22"/>
+      <c r="A820" s="20"/>
     </row>
     <row r="821">
-      <c r="A821" s="22"/>
+      <c r="A821" s="20"/>
     </row>
     <row r="822">
-      <c r="A822" s="22"/>
+      <c r="A822" s="20"/>
     </row>
     <row r="823">
-      <c r="A823" s="22"/>
+      <c r="A823" s="20"/>
     </row>
     <row r="824">
-      <c r="A824" s="22"/>
+      <c r="A824" s="20"/>
     </row>
     <row r="825">
-      <c r="A825" s="22"/>
+      <c r="A825" s="20"/>
     </row>
     <row r="826">
-      <c r="A826" s="22"/>
+      <c r="A826" s="20"/>
     </row>
     <row r="827">
-      <c r="A827" s="22"/>
+      <c r="A827" s="20"/>
     </row>
     <row r="828">
-      <c r="A828" s="22"/>
+      <c r="A828" s="20"/>
     </row>
     <row r="829">
-      <c r="A829" s="22"/>
+      <c r="A829" s="20"/>
     </row>
     <row r="830">
-      <c r="A830" s="22"/>
+      <c r="A830" s="20"/>
     </row>
     <row r="831">
-      <c r="A831" s="22"/>
+      <c r="A831" s="20"/>
     </row>
     <row r="832">
-      <c r="A832" s="22"/>
+      <c r="A832" s="20"/>
     </row>
     <row r="833">
-      <c r="A833" s="22"/>
+      <c r="A833" s="20"/>
     </row>
     <row r="834">
-      <c r="A834" s="22"/>
+      <c r="A834" s="20"/>
     </row>
     <row r="835">
-      <c r="A835" s="22"/>
+      <c r="A835" s="20"/>
     </row>
     <row r="836">
-      <c r="A836" s="22"/>
+      <c r="A836" s="20"/>
     </row>
     <row r="837">
-      <c r="A837" s="22"/>
+      <c r="A837" s="20"/>
     </row>
     <row r="838">
-      <c r="A838" s="22"/>
+      <c r="A838" s="20"/>
     </row>
     <row r="839">
-      <c r="A839" s="22"/>
+      <c r="A839" s="20"/>
     </row>
     <row r="840">
-      <c r="A840" s="22"/>
+      <c r="A840" s="20"/>
     </row>
     <row r="841">
-      <c r="A841" s="22"/>
+      <c r="A841" s="20"/>
     </row>
     <row r="842">
-      <c r="A842" s="22"/>
+      <c r="A842" s="20"/>
     </row>
     <row r="843">
-      <c r="A843" s="22"/>
+      <c r="A843" s="20"/>
     </row>
     <row r="844">
-      <c r="A844" s="22"/>
+      <c r="A844" s="20"/>
     </row>
     <row r="845">
-      <c r="A845" s="22"/>
+      <c r="A845" s="20"/>
     </row>
     <row r="846">
-      <c r="A846" s="22"/>
+      <c r="A846" s="20"/>
     </row>
     <row r="847">
-      <c r="A847" s="22"/>
+      <c r="A847" s="20"/>
     </row>
     <row r="848">
-      <c r="A848" s="22"/>
+      <c r="A848" s="20"/>
     </row>
     <row r="849">
-      <c r="A849" s="22"/>
+      <c r="A849" s="20"/>
     </row>
     <row r="850">
-      <c r="A850" s="22"/>
+      <c r="A850" s="20"/>
     </row>
     <row r="851">
-      <c r="A851" s="22"/>
+      <c r="A851" s="20"/>
     </row>
     <row r="852">
-      <c r="A852" s="22"/>
+      <c r="A852" s="20"/>
     </row>
     <row r="853">
-      <c r="A853" s="22"/>
+      <c r="A853" s="20"/>
     </row>
     <row r="854">
-      <c r="A854" s="22"/>
+      <c r="A854" s="20"/>
     </row>
     <row r="855">
-      <c r="A855" s="22"/>
+      <c r="A855" s="20"/>
     </row>
     <row r="856">
-      <c r="A856" s="22"/>
+      <c r="A856" s="20"/>
     </row>
     <row r="857">
-      <c r="A857" s="22"/>
+      <c r="A857" s="20"/>
     </row>
     <row r="858">
-      <c r="A858" s="22"/>
+      <c r="A858" s="20"/>
     </row>
     <row r="859">
-      <c r="A859" s="22"/>
+      <c r="A859" s="20"/>
     </row>
     <row r="860">
-      <c r="A860" s="22"/>
+      <c r="A860" s="20"/>
     </row>
     <row r="861">
-      <c r="A861" s="22"/>
+      <c r="A861" s="20"/>
     </row>
     <row r="862">
-      <c r="A862" s="22"/>
+      <c r="A862" s="20"/>
     </row>
     <row r="863">
-      <c r="A863" s="22"/>
+      <c r="A863" s="20"/>
     </row>
     <row r="864">
-      <c r="A864" s="22"/>
+      <c r="A864" s="20"/>
     </row>
     <row r="865">
-      <c r="A865" s="22"/>
+      <c r="A865" s="20"/>
     </row>
     <row r="866">
-      <c r="A866" s="22"/>
+      <c r="A866" s="20"/>
     </row>
     <row r="867">
-      <c r="A867" s="22"/>
+      <c r="A867" s="20"/>
     </row>
     <row r="868">
-      <c r="A868" s="22"/>
+      <c r="A868" s="20"/>
     </row>
     <row r="869">
-      <c r="A869" s="22"/>
+      <c r="A869" s="20"/>
     </row>
     <row r="870">
-      <c r="A870" s="22"/>
+      <c r="A870" s="20"/>
     </row>
     <row r="871">
-      <c r="A871" s="22"/>
+      <c r="A871" s="20"/>
     </row>
     <row r="872">
-      <c r="A872" s="22"/>
+      <c r="A872" s="20"/>
     </row>
     <row r="873">
-      <c r="A873" s="22"/>
+      <c r="A873" s="20"/>
     </row>
     <row r="874">
-      <c r="A874" s="22"/>
+      <c r="A874" s="20"/>
     </row>
     <row r="875">
-      <c r="A875" s="22"/>
+      <c r="A875" s="20"/>
     </row>
     <row r="876">
-      <c r="A876" s="22"/>
+      <c r="A876" s="20"/>
     </row>
     <row r="877">
-      <c r="A877" s="22"/>
+      <c r="A877" s="20"/>
     </row>
     <row r="878">
-      <c r="A878" s="22"/>
+      <c r="A878" s="20"/>
     </row>
     <row r="879">
-      <c r="A879" s="22"/>
+      <c r="A879" s="20"/>
     </row>
     <row r="880">
-      <c r="A880" s="22"/>
+      <c r="A880" s="20"/>
     </row>
     <row r="881">
-      <c r="A881" s="22"/>
+      <c r="A881" s="20"/>
     </row>
     <row r="882">
-      <c r="A882" s="22"/>
+      <c r="A882" s="20"/>
     </row>
     <row r="883">
-      <c r="A883" s="22"/>
+      <c r="A883" s="20"/>
     </row>
     <row r="884">
-      <c r="A884" s="22"/>
+      <c r="A884" s="20"/>
     </row>
     <row r="885">
-      <c r="A885" s="22"/>
+      <c r="A885" s="20"/>
     </row>
     <row r="886">
-      <c r="A886" s="22"/>
+      <c r="A886" s="20"/>
     </row>
     <row r="887">
-      <c r="A887" s="22"/>
+      <c r="A887" s="20"/>
     </row>
     <row r="888">
-      <c r="A888" s="22"/>
+      <c r="A888" s="20"/>
     </row>
     <row r="889">
-      <c r="A889" s="22"/>
+      <c r="A889" s="20"/>
     </row>
     <row r="890">
-      <c r="A890" s="22"/>
+      <c r="A890" s="20"/>
     </row>
     <row r="891">
-      <c r="A891" s="22"/>
+      <c r="A891" s="20"/>
     </row>
     <row r="892">
-      <c r="A892" s="22"/>
+      <c r="A892" s="20"/>
     </row>
     <row r="893">
-      <c r="A893" s="22"/>
+      <c r="A893" s="20"/>
     </row>
     <row r="894">
-      <c r="A894" s="22"/>
+      <c r="A894" s="20"/>
     </row>
     <row r="895">
-      <c r="A895" s="22"/>
+      <c r="A895" s="20"/>
     </row>
     <row r="896">
-      <c r="A896" s="22"/>
+      <c r="A896" s="20"/>
     </row>
     <row r="897">
-      <c r="A897" s="22"/>
+      <c r="A897" s="20"/>
     </row>
     <row r="898">
-      <c r="A898" s="22"/>
+      <c r="A898" s="20"/>
     </row>
     <row r="899">
-      <c r="A899" s="22"/>
+      <c r="A899" s="20"/>
     </row>
     <row r="900">
-      <c r="A900" s="22"/>
+      <c r="A900" s="20"/>
     </row>
     <row r="901">
-      <c r="A901" s="22"/>
+      <c r="A901" s="20"/>
     </row>
     <row r="902">
-      <c r="A902" s="22"/>
+      <c r="A902" s="20"/>
     </row>
     <row r="903">
-      <c r="A903" s="22"/>
+      <c r="A903" s="20"/>
     </row>
     <row r="904">
-      <c r="A904" s="22"/>
+      <c r="A904" s="20"/>
     </row>
     <row r="905">
-      <c r="A905" s="22"/>
+      <c r="A905" s="20"/>
     </row>
     <row r="906">
-      <c r="A906" s="22"/>
+      <c r="A906" s="20"/>
     </row>
     <row r="907">
-      <c r="A907" s="22"/>
+      <c r="A907" s="20"/>
     </row>
     <row r="908">
-      <c r="A908" s="22"/>
+      <c r="A908" s="20"/>
     </row>
     <row r="909">
-      <c r="A909" s="22"/>
+      <c r="A909" s="20"/>
     </row>
     <row r="910">
-      <c r="A910" s="22"/>
+      <c r="A910" s="20"/>
     </row>
     <row r="911">
-      <c r="A911" s="22"/>
+      <c r="A911" s="20"/>
     </row>
     <row r="912">
-      <c r="A912" s="22"/>
+      <c r="A912" s="20"/>
     </row>
     <row r="913">
-      <c r="A913" s="22"/>
+      <c r="A913" s="20"/>
     </row>
     <row r="914">
-      <c r="A914" s="22"/>
+      <c r="A914" s="20"/>
     </row>
     <row r="915">
-      <c r="A915" s="22"/>
+      <c r="A915" s="20"/>
     </row>
     <row r="916">
-      <c r="A916" s="22"/>
+      <c r="A916" s="20"/>
     </row>
     <row r="917">
-      <c r="A917" s="22"/>
+      <c r="A917" s="20"/>
     </row>
     <row r="918">
-      <c r="A918" s="22"/>
+      <c r="A918" s="20"/>
     </row>
     <row r="919">
-      <c r="A919" s="22"/>
+      <c r="A919" s="20"/>
     </row>
     <row r="920">
-      <c r="A920" s="22"/>
+      <c r="A920" s="20"/>
     </row>
     <row r="921">
-      <c r="A921" s="22"/>
+      <c r="A921" s="20"/>
     </row>
     <row r="922">
-      <c r="A922" s="22"/>
+      <c r="A922" s="20"/>
     </row>
     <row r="923">
-      <c r="A923" s="22"/>
+      <c r="A923" s="20"/>
     </row>
     <row r="924">
-      <c r="A924" s="22"/>
+      <c r="A924" s="20"/>
     </row>
     <row r="925">
-      <c r="A925" s="22"/>
+      <c r="A925" s="20"/>
     </row>
     <row r="926">
-      <c r="A926" s="22"/>
+      <c r="A926" s="20"/>
     </row>
     <row r="927">
-      <c r="A927" s="22"/>
+      <c r="A927" s="20"/>
     </row>
     <row r="928">
-      <c r="A928" s="22"/>
+      <c r="A928" s="20"/>
     </row>
     <row r="929">
-      <c r="A929" s="22"/>
+      <c r="A929" s="20"/>
     </row>
     <row r="930">
-      <c r="A930" s="22"/>
+      <c r="A930" s="20"/>
     </row>
     <row r="931">
-      <c r="A931" s="22"/>
+      <c r="A931" s="20"/>
     </row>
     <row r="932">
-      <c r="A932" s="22"/>
+      <c r="A932" s="20"/>
     </row>
     <row r="933">
-      <c r="A933" s="22"/>
+      <c r="A933" s="20"/>
     </row>
     <row r="934">
-      <c r="A934" s="22"/>
+      <c r="A934" s="20"/>
     </row>
     <row r="935">
-      <c r="A935" s="22"/>
+      <c r="A935" s="20"/>
     </row>
     <row r="936">
-      <c r="A936" s="22"/>
+      <c r="A936" s="20"/>
     </row>
     <row r="937">
-      <c r="A937" s="22"/>
+      <c r="A937" s="20"/>
     </row>
     <row r="938">
-      <c r="A938" s="22"/>
+      <c r="A938" s="20"/>
     </row>
     <row r="939">
-      <c r="A939" s="22"/>
+      <c r="A939" s="20"/>
     </row>
     <row r="940">
-      <c r="A940" s="22"/>
+      <c r="A940" s="20"/>
     </row>
     <row r="941">
-      <c r="A941" s="22"/>
+      <c r="A941" s="20"/>
     </row>
     <row r="942">
-      <c r="A942" s="22"/>
+      <c r="A942" s="20"/>
     </row>
     <row r="943">
-      <c r="A943" s="22"/>
+      <c r="A943" s="20"/>
     </row>
     <row r="944">
-      <c r="A944" s="22"/>
+      <c r="A944" s="20"/>
     </row>
     <row r="945">
-      <c r="A945" s="22"/>
+      <c r="A945" s="20"/>
     </row>
     <row r="946">
-      <c r="A946" s="22"/>
+      <c r="A946" s="20"/>
     </row>
     <row r="947">
-      <c r="A947" s="22"/>
+      <c r="A947" s="20"/>
     </row>
     <row r="948">
-      <c r="A948" s="22"/>
+      <c r="A948" s="20"/>
     </row>
     <row r="949">
-      <c r="A949" s="22"/>
+      <c r="A949" s="20"/>
     </row>
     <row r="950">
-      <c r="A950" s="22"/>
+      <c r="A950" s="20"/>
     </row>
     <row r="951">
-      <c r="A951" s="22"/>
+      <c r="A951" s="20"/>
     </row>
     <row r="952">
-      <c r="A952" s="22"/>
+      <c r="A952" s="20"/>
     </row>
     <row r="953">
-      <c r="A953" s="22"/>
+      <c r="A953" s="20"/>
     </row>
     <row r="954">
-      <c r="A954" s="22"/>
+      <c r="A954" s="20"/>
     </row>
     <row r="955">
-      <c r="A955" s="22"/>
+      <c r="A955" s="20"/>
     </row>
     <row r="956">
-      <c r="A956" s="22"/>
+      <c r="A956" s="20"/>
     </row>
     <row r="957">
-      <c r="A957" s="22"/>
+      <c r="A957" s="20"/>
     </row>
     <row r="958">
-      <c r="A958" s="22"/>
+      <c r="A958" s="20"/>
     </row>
     <row r="959">
-      <c r="A959" s="22"/>
+      <c r="A959" s="20"/>
     </row>
     <row r="960">
-      <c r="A960" s="22"/>
+      <c r="A960" s="20"/>
     </row>
     <row r="961">
-      <c r="A961" s="22"/>
+      <c r="A961" s="20"/>
     </row>
     <row r="962">
-      <c r="A962" s="22"/>
+      <c r="A962" s="20"/>
     </row>
     <row r="963">
-      <c r="A963" s="22"/>
+      <c r="A963" s="20"/>
     </row>
     <row r="964">
-      <c r="A964" s="22"/>
+      <c r="A964" s="20"/>
     </row>
     <row r="965">
-      <c r="A965" s="22"/>
+      <c r="A965" s="20"/>
     </row>
     <row r="966">
-      <c r="A966" s="22"/>
+      <c r="A966" s="20"/>
     </row>
     <row r="967">
-      <c r="A967" s="22"/>
+      <c r="A967" s="20"/>
     </row>
     <row r="968">
-      <c r="A968" s="22"/>
+      <c r="A968" s="20"/>
     </row>
     <row r="969">
-      <c r="A969" s="22"/>
+      <c r="A969" s="20"/>
     </row>
     <row r="970">
-      <c r="A970" s="22"/>
+      <c r="A970" s="20"/>
     </row>
     <row r="971">
-      <c r="A971" s="22"/>
+      <c r="A971" s="20"/>
     </row>
     <row r="972">
-      <c r="A972" s="22"/>
+      <c r="A972" s="20"/>
     </row>
     <row r="973">
-      <c r="A973" s="22"/>
+      <c r="A973" s="20"/>
     </row>
     <row r="974">
-      <c r="A974" s="22"/>
+      <c r="A974" s="20"/>
     </row>
     <row r="975">
-      <c r="A975" s="22"/>
+      <c r="A975" s="20"/>
     </row>
     <row r="976">
-      <c r="A976" s="22"/>
+      <c r="A976" s="20"/>
     </row>
     <row r="977">
-      <c r="A977" s="22"/>
+      <c r="A977" s="20"/>
     </row>
     <row r="978">
-      <c r="A978" s="22"/>
+      <c r="A978" s="20"/>
     </row>
     <row r="979">
-      <c r="A979" s="22"/>
+      <c r="A979" s="20"/>
     </row>
     <row r="980">
-      <c r="A980" s="22"/>
+      <c r="A980" s="20"/>
     </row>
     <row r="981">
-      <c r="A981" s="22"/>
+      <c r="A981" s="20"/>
     </row>
     <row r="982">
-      <c r="A982" s="22"/>
+      <c r="A982" s="20"/>
     </row>
     <row r="983">
-      <c r="A983" s="22"/>
+      <c r="A983" s="20"/>
     </row>
     <row r="984">
-      <c r="A984" s="22"/>
+      <c r="A984" s="20"/>
     </row>
     <row r="985">
-      <c r="A985" s="22"/>
+      <c r="A985" s="20"/>
     </row>
     <row r="986">
-      <c r="A986" s="22"/>
+      <c r="A986" s="20"/>
     </row>
     <row r="987">
-      <c r="A987" s="22"/>
+      <c r="A987" s="20"/>
     </row>
     <row r="988">
-      <c r="A988" s="22"/>
+      <c r="A988" s="20"/>
     </row>
     <row r="989">
-      <c r="A989" s="22"/>
+      <c r="A989" s="20"/>
     </row>
     <row r="990">
-      <c r="A990" s="22"/>
+      <c r="A990" s="20"/>
     </row>
     <row r="991">
-      <c r="A991" s="22"/>
+      <c r="A991" s="20"/>
     </row>
     <row r="992">
-      <c r="A992" s="22"/>
+      <c r="A992" s="20"/>
     </row>
     <row r="993">
-      <c r="A993" s="22"/>
+      <c r="A993" s="20"/>
     </row>
     <row r="994">
-      <c r="A994" s="22"/>
+      <c r="A994" s="20"/>
     </row>
     <row r="995">
-      <c r="A995" s="22"/>
+      <c r="A995" s="20"/>
     </row>
     <row r="996">
-      <c r="A996" s="22"/>
+      <c r="A996" s="20"/>
     </row>
     <row r="997">
-      <c r="A997" s="22"/>
+      <c r="A997" s="20"/>
     </row>
     <row r="998">
-      <c r="A998" s="22"/>
+      <c r="A998" s="20"/>
     </row>
     <row r="999">
-      <c r="A999" s="22"/>
+      <c r="A999" s="20"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="22"/>
+      <c r="A1000" s="20"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="22"/>
+      <c r="A1001" s="20"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="22"/>
+      <c r="A1002" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5744,13 +5985,16 @@
     <hyperlink r:id="rId145" ref="D75"/>
     <hyperlink r:id="rId146" ref="A76"/>
     <hyperlink r:id="rId147" ref="D76"/>
-    <hyperlink r:id="rId148" ref="A77"/>
-    <hyperlink r:id="rId149" ref="D77"/>
-    <hyperlink r:id="rId150" ref="A78"/>
-    <hyperlink r:id="rId151" ref="D78"/>
-    <hyperlink r:id="rId152" ref="A79"/>
-    <hyperlink r:id="rId153" ref="D79"/>
+    <hyperlink r:id="rId86" ref="A77"/>
+    <hyperlink r:id="rId87" ref="D77"/>
+    <hyperlink r:id="rId148" ref="A78"/>
+    <hyperlink r:id="rId149" ref="D78"/>
+    <hyperlink r:id="rId150" ref="A79"/>
+    <hyperlink r:id="rId151" ref="D79"/>
   </hyperlinks>
-  <drawing r:id="rId154"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>